--- a/cmip6/models/mri-agcm3-2/cmip6_mri_mri-agcm3-2_land.xlsx
+++ b/cmip6/models/mri-agcm3-2/cmip6_mri_mri-agcm3-2_land.xlsx
@@ -48,7 +48,7 @@
     <t>MRI-AGCM3-2</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Land Surface</t>

--- a/cmip6/models/mri-agcm3-2/cmip6_mri_mri-agcm3-2_land.xlsx
+++ b/cmip6/models/mri-agcm3-2/cmip6_mri_mri-agcm3-2_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="843">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -174,6 +174,9 @@
     <t>cmip6.land.key_properties.name</t>
   </si>
   <si>
+    <t>SiB0109</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -204,6 +207,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>Hirai et al. 2007; Yukimoto et al. 2011;Yukimoto et al. 2012</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -273,6 +279,9 @@
     <t>cmip6.land.key_properties.land_cover</t>
   </si>
   <si>
+    <t>Other: ice</t>
+  </si>
+  <si>
     <t>Bare soil</t>
   </si>
   <si>
@@ -645,6 +654,9 @@
     <t>cmip6.land.soil.soil_map.structure</t>
   </si>
   <si>
+    <t>It depends on the vegetation type(SiB).</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.2.1.3 </t>
   </si>
   <si>
@@ -879,6 +891,9 @@
     <t>cmip6.land.soil.hydrology.method</t>
   </si>
   <si>
+    <t>Explicit diffusion</t>
+  </si>
+  <si>
     <t>Bucket</t>
   </si>
   <si>
@@ -888,9 +903,6 @@
     <t>Choisnel</t>
   </si>
   <si>
-    <t>Explicit diffusion</t>
-  </si>
-  <si>
     <t>3.4.2</t>
   </si>
   <si>
@@ -924,6 +936,9 @@
     <t>cmip6.land.soil.hydrology.freezing.ice_storage_method</t>
   </si>
   <si>
+    <t>If the temperature is lower than the freezing point, the phase change occurs.</t>
+  </si>
+  <si>
     <t>3.4.2.3 *</t>
   </si>
   <si>
@@ -1197,6 +1212,9 @@
     <t>cmip6.land.snow.processes</t>
   </si>
   <si>
+    <t>Other: snow refreezing</t>
+  </si>
+  <si>
     <t>Snow interception</t>
   </si>
   <si>
@@ -1350,15 +1368,15 @@
     <t>cmip6.land.vegetation.vegetation_types</t>
   </si>
   <si>
+    <t>C3 grass</t>
+  </si>
+  <si>
     <t>Broadleaf tree</t>
   </si>
   <si>
     <t>Needleleaf tree</t>
   </si>
   <si>
-    <t>C3 grass</t>
-  </si>
-  <si>
     <t>C4 grass</t>
   </si>
   <si>
@@ -1659,15 +1677,15 @@
     <t>cmip6.land.energy_balance.evaporation</t>
   </si>
   <si>
+    <t>Combined</t>
+  </si>
+  <si>
     <t>Alpha</t>
   </si>
   <si>
     <t>Beta</t>
   </si>
   <si>
-    <t>Combined</t>
-  </si>
-  <si>
     <t>Monteith potential evaporation</t>
   </si>
   <si>
@@ -1791,6 +1809,9 @@
     <t>cmip6.land.carbon_cycle.vegetation.carbon_pools</t>
   </si>
   <si>
+    <t>Leaf, sapwood, heartwood, and root</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.2.1.3 </t>
   </si>
   <si>
@@ -1884,6 +1905,9 @@
     <t>cmip6.land.carbon_cycle.vegetation.allocation.allocation_bins</t>
   </si>
   <si>
+    <t>Other: leaves + stems and roots (leafy + woody)</t>
+  </si>
+  <si>
     <t>Leaves + stems + roots</t>
   </si>
   <si>
@@ -1908,15 +1932,15 @@
     <t>cmip6.land.carbon_cycle.vegetation.allocation.allocation_fractions</t>
   </si>
   <si>
+    <t>Function of plant allometry</t>
+  </si>
+  <si>
     <t>Fixed</t>
   </si>
   <si>
     <t>Function of vegetation type</t>
   </si>
   <si>
-    <t>Function of plant allometry</t>
-  </si>
-  <si>
     <t>Explicitly calculated</t>
   </si>
   <si>
@@ -2017,6 +2041,9 @@
   </si>
   <si>
     <t>cmip6.land.carbon_cycle.soil.carbon_pools</t>
+  </si>
+  <si>
+    <t>Above-ground litter pool, below-ground litter pool, intermidiate soil organic matter pool, and slow soil organic matter pool</t>
   </si>
   <si>
     <t xml:space="preserve">7.4.1.3 </t>
@@ -3187,20 +3214,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3211,10 +3238,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3222,10 +3249,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3233,15 +3260,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3249,10 +3276,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3260,15 +3287,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -3276,21 +3303,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3298,10 +3325,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3309,15 +3336,15 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
@@ -3349,20 +3376,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3373,10 +3400,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3384,10 +3411,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3395,15 +3422,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3411,10 +3438,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3422,15 +3449,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -3438,21 +3465,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3460,21 +3487,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3482,10 +3509,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3493,10 +3520,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3504,21 +3531,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3526,21 +3553,21 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3551,32 +3578,32 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3584,10 +3611,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3595,15 +3622,15 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="178" customHeight="1">
@@ -3611,21 +3638,21 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3636,55 +3663,55 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3692,15 +3719,15 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="178" customHeight="1">
@@ -3708,10 +3735,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3719,15 +3746,15 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
@@ -3735,65 +3762,65 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3804,16 +3831,16 @@
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="AD78" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3866,20 +3893,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3890,10 +3917,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3901,10 +3928,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3912,15 +3939,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3928,21 +3955,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3950,21 +3977,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -3972,21 +3999,21 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -3997,24 +4024,24 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -4022,10 +4049,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4033,10 +4060,10 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4044,15 +4071,15 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -4060,34 +4087,34 @@
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4095,52 +4122,52 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4151,35 +4178,35 @@
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4187,21 +4214,21 @@
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4209,23 +4236,23 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -4233,15 +4260,15 @@
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="178" customHeight="1">
@@ -4377,7 +4404,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD105"/>
+  <dimension ref="A1:XFD107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4422,14 +4449,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4437,15 +4466,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -4453,10 +4482,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4464,26 +4493,28 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
@@ -4491,15 +4522,15 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="178" customHeight="1">
@@ -4507,21 +4538,21 @@
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
@@ -4532,30 +4563,30 @@
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="B26" s="11"/>
       <c r="AA26" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
@@ -4563,10 +4594,10 @@
         <v>46</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -4574,21 +4605,21 @@
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:33" ht="24" customHeight="1">
@@ -4597,387 +4628,447 @@
       </c>
     </row>
     <row r="35" spans="1:33" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="AA35" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="24" customHeight="1">
+      <c r="B36" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AE35" s="6" t="s">
+      <c r="AA36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB36" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AF35" s="6" t="s">
+      <c r="AC36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AG35" s="6" t="s">
-        <v>73</v>
+      <c r="AD36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
+      <c r="B37" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="AE37" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:33" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="10" t="s">
+      <c r="AF37" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="AG37" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="24" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:33" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="24" customHeight="1">
+      <c r="A40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" ht="24" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="43" spans="1:33" ht="24" customHeight="1">
+      <c r="A43" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:33" ht="24" customHeight="1">
-      <c r="B43" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" ht="178" customHeight="1">
-      <c r="B44" s="11"/>
-    </row>
-    <row r="47" spans="1:33" ht="24" customHeight="1">
-      <c r="A47" s="12" t="s">
+      <c r="B43" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="12" t="s">
+    </row>
+    <row r="44" spans="1:33" ht="24" customHeight="1">
+      <c r="A44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:33" ht="24" customHeight="1">
-      <c r="B48" s="13" t="s">
+      <c r="C44" s="10" t="s">
         <v>98</v>
       </c>
     </row>
+    <row r="45" spans="1:33" ht="24" customHeight="1">
+      <c r="B45" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" ht="178" customHeight="1">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="A49" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="B50" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="B52" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="178" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
+      <c r="A52" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="10" t="s">
+      <c r="B52" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="A53" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>104</v>
       </c>
     </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
+      <c r="B54" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="178" customHeight="1">
+      <c r="B55" s="11"/>
+    </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="178" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
+      <c r="A57" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="10" t="s">
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="A58" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>107</v>
       </c>
     </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="178" customHeight="1">
+      <c r="B60" s="11"/>
+    </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="B62" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="178" customHeight="1">
-      <c r="B63" s="11"/>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="12" t="s">
+      <c r="A62" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B62" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="A63" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="B67" s="13" t="s">
+      <c r="C63" s="10" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="B64" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="178" customHeight="1">
+      <c r="B65" s="11"/>
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1">
+      <c r="A68" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="14" t="s">
+      <c r="B69" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B70" s="10" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="A72" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="10" t="s">
+      <c r="B73" s="11"/>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="A75" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="A76" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="10" t="s">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="12" t="s">
+      <c r="B79" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="12" t="s">
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="A80" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="13" t="s">
+      <c r="C80" s="10" t="s">
         <v>127</v>
       </c>
     </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="A84" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="10" t="s">
+      <c r="B85" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C86" s="10" t="s">
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
+      <c r="B87" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C90" s="10" t="s">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
+      <c r="B91" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C94" s="10" t="s">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="8" t="s">
-        <v>53</v>
+      <c r="B95" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="12" t="s">
+      <c r="A96" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="13" t="s">
+      <c r="C96" s="10" t="s">
         <v>142</v>
       </c>
     </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="B98" s="11"/>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="A101" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C103" s="10" t="s">
+      <c r="B102" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="178" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="A104" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="178" customHeight="1">
+      <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
       <formula1>AA26:AF26</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>AA35:AG35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>AA36:AG36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>AA37:AG37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5001,20 +5092,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5025,10 +5116,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5036,10 +5127,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5047,15 +5138,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5063,23 +5154,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -5087,15 +5178,15 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -5103,21 +5194,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5125,23 +5216,23 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -5149,15 +5240,15 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="178" customHeight="1">
@@ -5165,21 +5256,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5214,20 +5305,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5238,10 +5329,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5249,10 +5340,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5260,15 +5351,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5276,10 +5367,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5287,10 +5378,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5298,21 +5389,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5320,10 +5411,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5331,15 +5422,15 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5347,23 +5438,23 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -5371,15 +5462,15 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="178" customHeight="1">
@@ -5387,10 +5478,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5398,21 +5489,23 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5420,21 +5513,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="B41" s="11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5442,10 +5537,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5453,10 +5548,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5464,21 +5559,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5486,32 +5583,34 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
+      <c r="B53" s="11" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5519,10 +5618,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5530,10 +5629,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5541,34 +5640,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5576,21 +5675,21 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5601,66 +5700,66 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5668,23 +5767,23 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -5692,15 +5791,15 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="178" customHeight="1">
@@ -5708,21 +5807,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -5730,10 +5829,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5741,15 +5840,15 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="178" customHeight="1">
@@ -5757,10 +5856,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -5768,15 +5867,15 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="178" customHeight="1">
@@ -5784,43 +5883,45 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
+      <c r="B109" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -5831,93 +5932,97 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AC114" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
-      <c r="B118" s="11"/>
+      <c r="B118" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="AA118" s="6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AE118" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
+      <c r="B126" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -5925,21 +6030,23 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
+      <c r="B130" s="11" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -5947,15 +6054,15 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="B134" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="178" customHeight="1">
@@ -5963,23 +6070,23 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
@@ -5987,15 +6094,15 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="B143" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="178" customHeight="1">
@@ -6003,21 +6110,21 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6028,46 +6135,46 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AG149" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:33" ht="24" customHeight="1">
@@ -6075,15 +6182,15 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
       <c r="B157" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:33" ht="178" customHeight="1">
@@ -6091,21 +6198,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6113,10 +6220,10 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="24" customHeight="1">
@@ -6124,15 +6231,15 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
       <c r="B166" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="178" customHeight="1">
@@ -6140,10 +6247,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6151,15 +6258,15 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
       <c r="B171" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:29" ht="178" customHeight="1">
@@ -6167,52 +6274,54 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
       <c r="A175" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
-      <c r="B176" s="11"/>
+      <c r="B176" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="AA176" s="6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC176" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
       <c r="A179" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6221,15 +6330,17 @@
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="B181" s="11"/>
+      <c r="B181" s="11" t="s">
+        <v>346</v>
+      </c>
       <c r="AA181" s="6" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AC181" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6286,7 +6397,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD68"/>
+  <dimension ref="A1:XFD72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6300,20 +6411,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6324,10 +6435,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6335,10 +6446,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -6346,15 +6457,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -6362,10 +6473,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6373,15 +6484,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -6389,198 +6500,210 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="AA24" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="AA28" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="AA32" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="AA36" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="AA40" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6589,180 +6712,265 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>390</v>
+      </c>
       <c r="AA45" s="6" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>338</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="24" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>389</v>
+      <c r="A48" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="B49" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" ht="24" customHeight="1">
+      <c r="B50" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-      <c r="AA50" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB50" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC50" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="AD50" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="AE50" s="6" t="s">
-        <v>73</v>
+    <row r="51" spans="1:31" ht="24" customHeight="1">
+      <c r="B51" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE51" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>193</v>
+      <c r="B52" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE52" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA53" s="6" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" ht="24" customHeight="1">
-      <c r="B54" s="8" t="s">
-        <v>53</v>
+      <c r="AB53" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE53" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
+      <c r="A55" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="24" customHeight="1">
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1">
-      <c r="A58" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="B59" s="13" t="s">
-        <v>399</v>
-      </c>
+      <c r="B58" s="11"/>
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>401</v>
+      <c r="A61" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-      <c r="AA63" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC63" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="AD63" s="6" t="s">
-        <v>73</v>
+      <c r="B62" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="24" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="24" customHeight="1">
+      <c r="B66" s="11" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" ht="24" customHeight="1">
-      <c r="B67" s="10" t="s">
+      <c r="AA66" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB66" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC66" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD66" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" ht="24" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="24" customHeight="1">
+      <c r="A69" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="24" customHeight="1">
+      <c r="B70" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
-      <c r="AA68" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB68" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AC68" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="AD68" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE68" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="AF68" s="6" t="s">
-        <v>73</v>
+    <row r="71" spans="1:32" ht="24" customHeight="1">
+      <c r="B71" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA71" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB71" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC71" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD71" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE71" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF71" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" ht="24" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA72" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC72" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD72" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE72" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF72" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="14">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -6784,14 +6992,26 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
       <formula1>AA45:AC45</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AE50</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+      <formula1>AA46:AC46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+      <formula1>AA51:AE51</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>AA68:AF68</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+      <formula1>AA52:AE52</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>AA53:AE53</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
+      <formula1>AA66:AD66</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+      <formula1>AA71:AF71</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>AA72:AF72</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6800,7 +7020,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD101"/>
+  <dimension ref="A1:XFD104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6814,20 +7034,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6838,10 +7058,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6849,10 +7069,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -6860,15 +7080,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -6876,21 +7096,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6898,21 +7118,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -6920,10 +7140,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -6931,15 +7151,15 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="178" customHeight="1">
@@ -6947,52 +7167,54 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>441</v>
+      </c>
       <c r="AA28" s="6" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7001,506 +7223,587 @@
       </c>
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>447</v>
+      </c>
       <c r="AA33" s="6" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" ht="24" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="10" t="s">
+      <c r="B35" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC35" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>448</v>
+      <c r="AD35" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" ht="24" customHeight="1">
+      <c r="B39" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="AA38" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="AB38" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="AC38" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="AD38" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE38" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="AF38" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AG38" s="6" t="s">
+    <row r="40" spans="1:39" ht="24" customHeight="1">
+      <c r="B40" s="11"/>
+      <c r="AA40" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="AH38" s="6" t="s">
+      <c r="AB40" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="AI38" s="6" t="s">
+      <c r="AC40" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="AJ38" s="6" t="s">
+      <c r="AD40" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="AK38" s="6" t="s">
+      <c r="AE40" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="AL38" s="6" t="s">
+      <c r="AF40" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="AM38" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="AG40" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="AH40" s="6" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="41" spans="1:39" ht="24" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="AI40" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="AJ40" s="6" t="s">
         <v>464</v>
       </c>
+      <c r="AK40" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AL40" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AM40" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="42" spans="1:39" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="AA42" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="AC42" s="6" t="s">
+      <c r="A42" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="AD42" s="6" t="s">
-        <v>73</v>
+      <c r="B42" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" ht="24" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>471</v>
       </c>
+      <c r="AA44" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AC44" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD44" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
+      <c r="A46" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" ht="24" customHeight="1">
+      <c r="A47" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="B48" s="11"/>
+    </row>
+    <row r="50" spans="1:29" ht="24" customHeight="1">
+      <c r="A50" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-      <c r="AA54" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB54" s="6" t="s">
+    <row r="51" spans="1:29" ht="24" customHeight="1">
+      <c r="A51" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="AC54" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="52" spans="1:29" ht="24" customHeight="1">
+      <c r="B52" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="24" customHeight="1">
+      <c r="A54" s="9" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="C57" s="10" t="s">
+    </row>
+    <row r="55" spans="1:29" ht="24" customHeight="1">
+      <c r="A55" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" ht="178" customHeight="1">
-      <c r="B59" s="11"/>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B61" s="9" t="s">
+    </row>
+    <row r="56" spans="1:29" ht="24" customHeight="1">
+      <c r="B56" s="11" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="10" t="s">
+      <c r="AA56" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB56" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AC56" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="24" customHeight="1">
+      <c r="A58" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-      <c r="AA63" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC63" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD63" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
+    <row r="59" spans="1:29" ht="24" customHeight="1">
+      <c r="A59" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="10" t="s">
+    <row r="60" spans="1:29" ht="24" customHeight="1">
+      <c r="B60" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="178" customHeight="1">
+      <c r="B61" s="11"/>
+    </row>
+    <row r="63" spans="1:29" ht="24" customHeight="1">
+      <c r="A63" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="24" customHeight="1">
-      <c r="B67" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" ht="178" customHeight="1">
-      <c r="B68" s="11"/>
-    </row>
-    <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
+    <row r="64" spans="1:29" ht="24" customHeight="1">
+      <c r="A64" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="24" customHeight="1">
-      <c r="A71" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" s="10" t="s">
+    <row r="65" spans="1:30" ht="24" customHeight="1">
+      <c r="B65" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA65" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB65" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC65" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD65" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="24" customHeight="1">
+      <c r="A67" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="24" customHeight="1">
-      <c r="B72" s="11"/>
-      <c r="AA72" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB72" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC72" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
+    <row r="68" spans="1:30" ht="24" customHeight="1">
+      <c r="A68" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="24" customHeight="1">
-      <c r="A75" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="10" t="s">
+    <row r="69" spans="1:30" ht="24" customHeight="1">
+      <c r="B69" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="178" customHeight="1">
+      <c r="B70" s="11"/>
+    </row>
+    <row r="72" spans="1:30" ht="24" customHeight="1">
+      <c r="A72" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="24" customHeight="1">
-      <c r="B76" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" ht="178" customHeight="1">
-      <c r="B77" s="11"/>
-    </row>
-    <row r="79" spans="1:29" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
+    <row r="73" spans="1:30" ht="24" customHeight="1">
+      <c r="A73" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="C73" s="10" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="24" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" s="10" t="s">
+    <row r="74" spans="1:30" ht="24" customHeight="1">
+      <c r="B74" s="11"/>
+      <c r="AA74" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC74" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1">
+      <c r="A76" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>504</v>
       </c>
     </row>
+    <row r="77" spans="1:30" ht="24" customHeight="1">
+      <c r="A77" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="24" customHeight="1">
+      <c r="B78" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="178" customHeight="1">
+      <c r="B79" s="11"/>
+    </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
-      <c r="AA81" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB81" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC81" s="6" t="s">
-        <v>73</v>
+      <c r="A81" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" ht="24" customHeight="1">
+      <c r="A82" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
-      <c r="A83" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:32" ht="24" customHeight="1">
-      <c r="A84" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>508</v>
+      <c r="B83" s="11"/>
+      <c r="AA83" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB83" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC83" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
-      <c r="B85" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:32" ht="178" customHeight="1">
-      <c r="B86" s="11"/>
-    </row>
-    <row r="88" spans="1:32" ht="24" customHeight="1">
-      <c r="A88" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" ht="24" customHeight="1">
-      <c r="A89" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B89" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>512</v>
       </c>
     </row>
+    <row r="86" spans="1:32" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="24" customHeight="1">
+      <c r="B87" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" ht="178" customHeight="1">
+      <c r="B88" s="11"/>
+    </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
-      <c r="B90" s="10" t="s">
+      <c r="A90" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" ht="24" customHeight="1">
+      <c r="A91" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" ht="24" customHeight="1">
+      <c r="B92" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
-      <c r="AA91" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="AB91" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC91" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="AD91" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="AE91" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="AF91" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>518</v>
+      <c r="B93" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA93" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB93" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC93" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD93" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE93" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF93" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA94" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="AB94" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC94" s="6" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="95" spans="1:32" ht="24" customHeight="1">
-      <c r="B95" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:32" ht="178" customHeight="1">
-      <c r="B96" s="11"/>
+      <c r="AD94" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE94" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF94" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" ht="24" customHeight="1">
+      <c r="A96" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="B98" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="178" customHeight="1">
+      <c r="B99" s="11"/>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11"/>
+      <c r="A101" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="A102" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="B103" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="B104" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="15">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>0</formula1>
     </dataValidation>
@@ -7513,29 +7816,38 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
       <formula1>AA33:AF33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>AA38:AM38</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>AA34:AF34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AD42</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>AA35:AF35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+      <formula1>AA40:AM40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+      <formula1>AA44:AD44</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>AA54:AC54</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
+      <formula1>AA56:AC56</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65">
+      <formula1>AA65:AD65</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>AA72:AC72</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+      <formula1>AA74:AC74</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
-      <formula1>AA81:AC81</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
+      <formula1>AA83:AC83</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>AA91:AF91</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>AA93:AF93</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94">
+      <formula1>AA94:AF94</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7558,20 +7870,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7582,10 +7894,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7593,10 +7905,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7604,15 +7916,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7620,10 +7932,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -7631,15 +7943,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -7647,43 +7959,45 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -7692,40 +8006,42 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>550</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -7734,12 +8050,14 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>557</v>
+      </c>
       <c r="AA30" s="6" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -7774,20 +8092,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7798,10 +8116,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7809,10 +8127,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7820,15 +8138,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7836,10 +8154,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -7847,15 +8165,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -7863,21 +8181,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -7885,21 +8203,21 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -7910,24 +8228,24 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -7935,15 +8253,15 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
@@ -7951,45 +8269,47 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
+      <c r="B38" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -7997,26 +8317,28 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8024,15 +8346,15 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="178" customHeight="1">
@@ -8040,23 +8362,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8064,15 +8386,15 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="B56" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="178" customHeight="1">
@@ -8080,23 +8402,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8104,15 +8426,15 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="B65" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="178" customHeight="1">
@@ -8120,10 +8442,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8131,15 +8453,15 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="178" customHeight="1">
@@ -8147,23 +8469,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8171,15 +8493,15 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="178" customHeight="1">
@@ -8187,97 +8509,101 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
-      <c r="B84" s="11"/>
+      <c r="B84" s="11" t="s">
+        <v>626</v>
+      </c>
       <c r="AA84" s="6" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="AE84" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
       <c r="A87" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
+      <c r="B88" s="11" t="s">
+        <v>635</v>
+      </c>
       <c r="AA88" s="6" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="AE88" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8285,10 +8611,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8296,23 +8622,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8320,10 +8646,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8331,34 +8657,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8366,10 +8692,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8377,15 +8703,15 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="B116" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
@@ -8393,10 +8719,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8404,15 +8730,15 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
@@ -8420,10 +8746,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8431,15 +8757,15 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="178" customHeight="1">
@@ -8447,34 +8773,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8482,10 +8808,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8493,26 +8819,28 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
+      <c r="B140" s="11" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -8520,15 +8848,15 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="B144" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
@@ -8536,10 +8864,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -8547,15 +8875,15 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="B149" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="178" customHeight="1">
@@ -8563,34 +8891,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -8598,10 +8926,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -8609,15 +8937,15 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="B162" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
@@ -8625,10 +8953,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -8636,15 +8964,15 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="B167" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -8652,10 +8980,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -8663,10 +8991,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/mri-agcm3-2/cmip6_mri_mri-agcm3-2_land.xlsx
+++ b/cmip6/models/mri-agcm3-2/cmip6_mri_mri-agcm3-2_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="869">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -237,123 +237,138 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>phospherous</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Atmospheric Coupling Treatment</t>
+  </si>
+  <si>
+    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Land Cover</t>
+  </si>
+  <si>
+    <t>Types of land cover defined in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover</t>
+  </si>
+  <si>
+    <t>Other: ice</t>
+  </si>
+  <si>
+    <t>bare soil</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>land ice</t>
+  </si>
+  <si>
+    <t>lake ice</t>
+  </si>
+  <si>
+    <t>vegetated</t>
+  </si>
+  <si>
+    <t>Bare soil</t>
+  </si>
+  <si>
+    <t>Vegetated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.8 </t>
+  </si>
+  <si>
+    <t>Land Cover Change</t>
+  </si>
+  <si>
+    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover_change</t>
+  </si>
+  <si>
+    <t>1.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Tiling</t>
+  </si>
+  <si>
+    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.tiling</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation Properties</t>
+  </si>
+  <si>
+    <t>Convservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Carbon</t>
   </si>
   <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Phospherous</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Atmospheric Coupling Treatment</t>
-  </si>
-  <si>
-    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Land Cover</t>
-  </si>
-  <si>
-    <t>Types of land cover defined in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover</t>
-  </si>
-  <si>
-    <t>Other: ice</t>
-  </si>
-  <si>
-    <t>Bare soil</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Land ice</t>
-  </si>
-  <si>
-    <t>Lake ice</t>
-  </si>
-  <si>
-    <t>Vegetated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.8 </t>
-  </si>
-  <si>
-    <t>Land Cover Change</t>
-  </si>
-  <si>
-    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover_change</t>
-  </si>
-  <si>
-    <t>1.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Tiling</t>
-  </si>
-  <si>
-    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.tiling</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation Properties</t>
-  </si>
-  <si>
-    <t>Convservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -762,13 +777,13 @@
     <t>cmip6.land.soil.snow_free_albedo.functions</t>
   </si>
   <si>
-    <t>Vegetation type</t>
-  </si>
-  <si>
-    <t>Soil humidity</t>
-  </si>
-  <si>
-    <t>Vegetation state</t>
+    <t>vegetation type</t>
+  </si>
+  <si>
+    <t>soil humidity</t>
+  </si>
+  <si>
+    <t>vegetation state</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.3 </t>
@@ -783,10 +798,10 @@
     <t>cmip6.land.soil.snow_free_albedo.direct_diffuse</t>
   </si>
   <si>
-    <t>Distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>No distinction between direct and diffuse albedo</t>
+    <t>distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>no distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -873,10 +888,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>Perfect connectivity</t>
-  </si>
-  <si>
-    <t>Darcian flow</t>
+    <t>perfect connectivity: Common soil for multiple tiles</t>
+  </si>
+  <si>
+    <t>Darcian flow: Darcian flow among hillslope tiles</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
@@ -987,7 +1002,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>Topmodel-based</t>
+    <t>topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1068,7 +1083,10 @@
     <t>Soil moisture freeze-thaw</t>
   </si>
   <si>
-    <t>Coupling with snow temperature</t>
+    <t>soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1131,7 +1149,10 @@
     <t>cmip6.land.snow.density</t>
   </si>
   <si>
-    <t>Constant</t>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>constant</t>
   </si>
   <si>
     <t>4.1.1.6 *</t>
@@ -1146,33 +1167,36 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
+    <t>diagnostic</t>
+  </si>
+  <si>
+    <t>4.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Heat Content</t>
+  </si>
+  <si>
+    <t>Description of the treatment of the heat content of snow</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.heat_content</t>
+  </si>
+  <si>
+    <t>4.1.1.8 *</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Description of the treatment of snow temperature</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.temperature</t>
+  </si>
+  <si>
     <t>Diagnostic</t>
   </si>
   <si>
-    <t>4.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Heat Content</t>
-  </si>
-  <si>
-    <t>Description of the treatment of the heat content of snow</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.heat_content</t>
-  </si>
-  <si>
-    <t>4.1.1.8 *</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Description of the treatment of snow temperature</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.temperature</t>
-  </si>
-  <si>
     <t>4.1.1.9 *</t>
   </si>
   <si>
@@ -1200,6 +1224,12 @@
     <t>Ground snow fraction</t>
   </si>
   <si>
+    <t>ground snow fraction</t>
+  </si>
+  <si>
+    <t>vegetation snow fraction</t>
+  </si>
+  <si>
     <t>Vegetation snow fraction</t>
   </si>
   <si>
@@ -1215,18 +1245,24 @@
     <t>Other: snow refreezing</t>
   </si>
   <si>
+    <t>snow interception</t>
+  </si>
+  <si>
+    <t>snow melting</t>
+  </si>
+  <si>
+    <t>snow freezing</t>
+  </si>
+  <si>
+    <t>blowing snow</t>
+  </si>
+  <si>
     <t>Snow interception</t>
   </si>
   <si>
     <t>Snow melting</t>
   </si>
   <si>
-    <t>Snow freezing</t>
-  </si>
-  <si>
-    <t>Blowing snow</t>
-  </si>
-  <si>
     <t>4.1.1.12 *</t>
   </si>
   <si>
@@ -1257,261 +1293,285 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
+    <t>prescribed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.2 </t>
+  </si>
+  <si>
+    <t>Describe the function types if prognostic snow albedo</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.snow_albedo.functions</t>
+  </si>
+  <si>
+    <t>Snow age</t>
+  </si>
+  <si>
+    <t>snow age</t>
+  </si>
+  <si>
+    <t>snow density</t>
+  </si>
+  <si>
+    <t>snow grain type</t>
+  </si>
+  <si>
+    <t>aerosol deposition</t>
+  </si>
+  <si>
+    <t>Snow density</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Land surface vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the vegetation in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of land surface vegetation in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.overview</t>
+  </si>
+  <si>
+    <t>5.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Time step of vegetation scheme in seconds</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.time_step</t>
+  </si>
+  <si>
+    <t>5.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Dynamic Vegetation</t>
+  </si>
+  <si>
+    <t>Is there dynamic evolution of vegetation?</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.dynamic_vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.5 </t>
+  </si>
+  <si>
+    <t>Describe the vegetation tiling, if any.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.tiling</t>
+  </si>
+  <si>
+    <t>5.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Vegetation Representation</t>
+  </si>
+  <si>
+    <t>Vegetation classification used</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_representation</t>
+  </si>
+  <si>
+    <t>Vegetation types</t>
+  </si>
+  <si>
+    <t>vegetation types</t>
+  </si>
+  <si>
+    <t>biome types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.7 </t>
+  </si>
+  <si>
+    <t>Vegetation Types</t>
+  </si>
+  <si>
+    <t>List of vegetation types in the classification, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_types</t>
+  </si>
+  <si>
+    <t>C3 grass</t>
+  </si>
+  <si>
+    <t>broadleaf tree</t>
+  </si>
+  <si>
+    <t>needleleaf tree</t>
+  </si>
+  <si>
+    <t>C4 grass</t>
+  </si>
+  <si>
+    <t>Broadleaf tree</t>
+  </si>
+  <si>
+    <t>Needleleaf tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.8 </t>
+  </si>
+  <si>
+    <t>Biome Types</t>
+  </si>
+  <si>
+    <t>List of biome types in the classification, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.biome_types</t>
+  </si>
+  <si>
+    <t>evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>mixed forest</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>wooded grassland</t>
+  </si>
+  <si>
+    <t>closed shrubland</t>
+  </si>
+  <si>
+    <t>opne shrubland</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>cropland</t>
+  </si>
+  <si>
+    <t>wetlands</t>
+  </si>
+  <si>
+    <t>5.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Vegetation Time Variation</t>
+  </si>
+  <si>
+    <t>How the vegetation fractions in each tile are varying with time</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_time_variation</t>
+  </si>
+  <si>
+    <t>Fixed (not varying)</t>
+  </si>
+  <si>
+    <t>fixed (not varying)</t>
+  </si>
+  <si>
+    <t>prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>dynamical (varying from simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.10 </t>
+  </si>
+  <si>
+    <t>Vegetation Map</t>
+  </si>
+  <si>
+    <t>If vegetation fractions are not dynamically updated , describe the vegetation map used (common name and reference, if possible)</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_map</t>
+  </si>
+  <si>
+    <t>5.1.1.11 *</t>
+  </si>
+  <si>
+    <t>Interception</t>
+  </si>
+  <si>
+    <t>Is vegetation interception of rainwater represented?</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.interception</t>
+  </si>
+  <si>
+    <t>5.1.1.12 *</t>
+  </si>
+  <si>
+    <t>Phenology</t>
+  </si>
+  <si>
+    <t>Treatment of vegetation phenology</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.phenology</t>
+  </si>
+  <si>
+    <t>Diagnostic (vegetation map)</t>
+  </si>
+  <si>
+    <t>diagnostic (vegetation map)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.13 </t>
+  </si>
+  <si>
+    <t>Phenology Description</t>
+  </si>
+  <si>
+    <t>General description of the treatment of vegetation phenology</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.phenology_description</t>
+  </si>
+  <si>
+    <t>5.1.1.14 *</t>
+  </si>
+  <si>
+    <t>Leaf Area Index</t>
+  </si>
+  <si>
+    <t>Treatment of vegetation leaf area index</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.leaf_area_index</t>
+  </si>
+  <si>
     <t>Prescribed</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe the function types if prognostic snow albedo</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.snow_albedo.functions</t>
-  </si>
-  <si>
-    <t>Snow age</t>
-  </si>
-  <si>
-    <t>Snow density</t>
-  </si>
-  <si>
-    <t>Snow grain type</t>
-  </si>
-  <si>
-    <t>Aerosol deposition</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t>Land surface vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the vegetation in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of land surface vegetation in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.overview</t>
-  </si>
-  <si>
-    <t>5.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Time step of vegetation scheme in seconds</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.time_step</t>
-  </si>
-  <si>
-    <t>5.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Dynamic Vegetation</t>
-  </si>
-  <si>
-    <t>Is there dynamic evolution of vegetation?</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.dynamic_vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.5 </t>
-  </si>
-  <si>
-    <t>Describe the vegetation tiling, if any.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.tiling</t>
-  </si>
-  <si>
-    <t>5.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Vegetation Representation</t>
-  </si>
-  <si>
-    <t>Vegetation classification used</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_representation</t>
-  </si>
-  <si>
-    <t>Vegetation types</t>
-  </si>
-  <si>
-    <t>Biome types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.7 </t>
-  </si>
-  <si>
-    <t>Vegetation Types</t>
-  </si>
-  <si>
-    <t>List of vegetation types in the classification, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_types</t>
-  </si>
-  <si>
-    <t>C3 grass</t>
-  </si>
-  <si>
-    <t>Broadleaf tree</t>
-  </si>
-  <si>
-    <t>Needleleaf tree</t>
-  </si>
-  <si>
-    <t>C4 grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.8 </t>
-  </si>
-  <si>
-    <t>Biome Types</t>
-  </si>
-  <si>
-    <t>List of biome types in the classification, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.biome_types</t>
-  </si>
-  <si>
-    <t>Evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>Mixed forest</t>
-  </si>
-  <si>
-    <t>Woodland</t>
-  </si>
-  <si>
-    <t>Wooded grassland</t>
-  </si>
-  <si>
-    <t>Closed shrubland</t>
-  </si>
-  <si>
-    <t>Opne shrubland</t>
-  </si>
-  <si>
-    <t>Grassland</t>
-  </si>
-  <si>
-    <t>Cropland</t>
-  </si>
-  <si>
-    <t>Wetlands</t>
-  </si>
-  <si>
-    <t>5.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Vegetation Time Variation</t>
-  </si>
-  <si>
-    <t>How the vegetation fractions in each tile are varying with time</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_time_variation</t>
-  </si>
-  <si>
-    <t>Fixed (not varying)</t>
-  </si>
-  <si>
-    <t>Prescribed (varying from files)</t>
-  </si>
-  <si>
-    <t>Dynamical (varying from simulation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.10 </t>
-  </si>
-  <si>
-    <t>Vegetation Map</t>
-  </si>
-  <si>
-    <t>If vegetation fractions are not dynamically updated , describe the vegetation map used (common name and reference, if possible)</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_map</t>
-  </si>
-  <si>
-    <t>5.1.1.11 *</t>
-  </si>
-  <si>
-    <t>Interception</t>
-  </si>
-  <si>
-    <t>Is vegetation interception of rainwater represented?</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.interception</t>
-  </si>
-  <si>
-    <t>5.1.1.12 *</t>
-  </si>
-  <si>
-    <t>Phenology</t>
-  </si>
-  <si>
-    <t>Treatment of vegetation phenology</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.phenology</t>
-  </si>
-  <si>
-    <t>Diagnostic (vegetation map)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.13 </t>
-  </si>
-  <si>
-    <t>Phenology Description</t>
-  </si>
-  <si>
-    <t>General description of the treatment of vegetation phenology</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.phenology_description</t>
-  </si>
-  <si>
-    <t>5.1.1.14 *</t>
-  </si>
-  <si>
-    <t>Leaf Area Index</t>
-  </si>
-  <si>
-    <t>Treatment of vegetation leaf area index</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.leaf_area_index</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.15 </t>
   </si>
   <si>
@@ -1587,15 +1647,24 @@
     <t>Light</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>water availability</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
     <t>Water availability</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>O3</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1680,10 +1749,13 @@
     <t>Combined</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Beta</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1701,6 +1773,9 @@
     <t>Transpiration</t>
   </si>
   <si>
+    <t>transpiration</t>
+  </si>
+  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -1758,13 +1833,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>Grand slam protocol</t>
-  </si>
-  <si>
-    <t>Residence time</t>
-  </si>
-  <si>
-    <t>Decay time</t>
+    <t>grand slam protocol</t>
+  </si>
+  <si>
+    <t>residence time</t>
+  </si>
+  <si>
+    <t>decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1908,16 +1983,16 @@
     <t>Other: leaves + stems and roots (leafy + woody)</t>
   </si>
   <si>
-    <t>Leaves + stems + roots</t>
-  </si>
-  <si>
-    <t>Leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>Leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>Whole plant (no distinction)</t>
+    <t>leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -1935,13 +2010,16 @@
     <t>Function of plant allometry</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Function of vegetation type</t>
-  </si>
-  <si>
-    <t>Explicitly calculated</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>function of vegetation type</t>
+  </si>
+  <si>
+    <t>function of plant allometry</t>
+  </si>
+  <si>
+    <t>explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2256,10 +2334,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>Flood plains</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
+    <t>flood plains</t>
+  </si>
+  <si>
+    <t>irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2298,10 +2376,10 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Tracers</t>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>tracers</t>
   </si>
   <si>
     <t>9.1.1.12 *</t>
@@ -2316,10 +2394,10 @@
     <t>cmip6.land.river_routing.basin_flow_direction_map</t>
   </si>
   <si>
-    <t>Present day</t>
-  </si>
-  <si>
-    <t>Adapted for other periods</t>
+    <t>present day</t>
+  </si>
+  <si>
+    <t>adapted for other periods</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.13 </t>
@@ -2364,10 +2442,10 @@
     <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
   </si>
   <si>
-    <t>Direct (large rivers)</t>
-  </si>
-  <si>
-    <t>Diffuse</t>
+    <t>direct (large rivers)</t>
+  </si>
+  <si>
+    <t>diffuse</t>
   </si>
   <si>
     <t>9.2.1.2 *</t>
@@ -2508,10 +2586,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3214,20 +3292,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>695</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3238,10 +3316,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3249,7 +3327,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>700</v>
+        <v>726</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3260,10 +3338,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>701</v>
+        <v>727</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>702</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3276,10 +3354,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3287,10 +3365,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>705</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3303,21 +3381,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3325,10 +3403,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>709</v>
+        <v>735</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3336,10 +3414,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3376,20 +3454,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3400,10 +3478,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3411,7 +3489,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3422,10 +3500,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>719</v>
+        <v>745</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3438,10 +3516,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3449,10 +3527,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>723</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3465,21 +3543,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3487,21 +3565,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3509,10 +3587,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3520,10 +3598,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3531,21 +3609,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>735</v>
+        <v>761</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3553,10 +3631,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>740</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3564,10 +3642,10 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>742</v>
+        <v>768</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3578,10 +3656,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>744</v>
+        <v>770</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>75</v>
@@ -3589,21 +3667,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>746</v>
+        <v>772</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>748</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3611,10 +3689,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3622,10 +3700,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3638,10 +3716,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3649,10 +3727,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3663,13 +3741,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -3677,10 +3755,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3688,19 +3766,19 @@
         <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>75</v>
@@ -3708,10 +3786,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3719,10 +3797,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3735,10 +3813,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3746,10 +3824,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3762,23 +3840,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>774</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3786,19 +3864,19 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>777</v>
+        <v>803</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>778</v>
+        <v>804</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>779</v>
+        <v>805</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>75</v>
@@ -3806,10 +3884,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>781</v>
+        <v>807</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>782</v>
+        <v>808</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3817,10 +3895,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>784</v>
+        <v>810</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3831,13 +3909,13 @@
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>75</v>
@@ -3893,20 +3971,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>785</v>
+        <v>811</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>786</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>787</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3917,10 +3995,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3928,7 +4006,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>791</v>
+        <v>817</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3939,10 +4017,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3955,21 +4033,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>794</v>
+        <v>820</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>795</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3977,21 +4055,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -3999,10 +4077,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>802</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4010,10 +4088,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4024,13 +4102,13 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>75</v>
@@ -4038,10 +4116,10 @@
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>805</v>
+        <v>831</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>806</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -4049,10 +4127,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4060,10 +4138,10 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4071,10 +4149,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4087,34 +4165,34 @@
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>814</v>
+        <v>840</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>816</v>
+        <v>842</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4122,10 +4200,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>819</v>
+        <v>845</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -4133,19 +4211,19 @@
         <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -4153,10 +4231,10 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>823</v>
+        <v>849</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -4164,10 +4242,10 @@
         <v>67</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4178,13 +4256,13 @@
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>826</v>
+        <v>852</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
       <c r="AD50" s="6" t="s">
         <v>75</v>
@@ -4192,21 +4270,21 @@
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4214,21 +4292,21 @@
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4236,20 +4314,20 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>837</v>
+        <v>863</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>840</v>
+        <v>866</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>62</v>
@@ -4260,10 +4338,10 @@
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>841</v>
+        <v>867</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>842</v>
+        <v>868</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4655,7 +4733,7 @@
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>85</v>
@@ -4681,7 +4759,7 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>85</v>
@@ -4707,10 +4785,10 @@
     </row>
     <row r="39" spans="1:33" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:33" ht="24" customHeight="1">
@@ -4718,10 +4796,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
@@ -4729,10 +4807,10 @@
     </row>
     <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
@@ -4740,10 +4818,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
@@ -4756,23 +4834,23 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -4780,10 +4858,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4796,10 +4874,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -4807,10 +4885,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4823,10 +4901,10 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -4834,10 +4912,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -4850,34 +4928,34 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -4885,21 +4963,21 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -4907,10 +4985,10 @@
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
@@ -4918,10 +4996,10 @@
         <v>46</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -4929,23 +5007,23 @@
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -4953,10 +5031,10 @@
         <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -4964,10 +5042,10 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -4975,10 +5053,10 @@
         <v>46</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -4986,10 +5064,10 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -4997,10 +5075,10 @@
         <v>46</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5013,20 +5091,20 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="B102" s="13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>62</v>
@@ -5037,10 +5115,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -5092,20 +5170,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5116,10 +5194,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5127,7 +5205,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5138,10 +5216,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5154,20 +5232,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
@@ -5178,10 +5256,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5194,21 +5272,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5216,20 +5294,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5240,10 +5318,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5256,21 +5334,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5305,20 +5383,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5329,10 +5407,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5340,7 +5418,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5351,10 +5429,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5367,10 +5445,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5378,10 +5456,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5389,21 +5467,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5411,10 +5489,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5422,10 +5500,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5438,20 +5516,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5462,10 +5540,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5478,10 +5556,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5489,23 +5567,23 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5513,23 +5591,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5537,10 +5615,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5548,10 +5626,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5559,23 +5637,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5583,34 +5661,34 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5618,10 +5696,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5629,10 +5707,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5640,34 +5718,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5675,10 +5753,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5686,10 +5764,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5700,13 +5778,13 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>75</v>
@@ -5714,10 +5792,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -5725,19 +5803,19 @@
         <v>67</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AC78" s="6" t="s">
         <v>75</v>
@@ -5745,21 +5823,21 @@
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5767,20 +5845,20 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>62</v>
@@ -5791,10 +5869,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5807,21 +5885,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -5829,10 +5907,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5840,10 +5918,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -5856,10 +5934,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -5867,10 +5945,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -5883,21 +5961,21 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -5907,10 +5985,10 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -5918,10 +5996,10 @@
         <v>67</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -5932,10 +6010,10 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AC114" s="6" t="s">
         <v>75</v>
@@ -5943,10 +6021,10 @@
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
@@ -5954,27 +6032,27 @@
         <v>67</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="B118" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AA118" s="6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AE118" s="6" t="s">
         <v>75</v>
@@ -5982,34 +6060,34 @@
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
@@ -6019,10 +6097,10 @@
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -6030,23 +6108,23 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -6054,10 +6132,10 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -6070,20 +6148,20 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>62</v>
@@ -6094,10 +6172,10 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -6110,10 +6188,10 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
@@ -6121,10 +6199,10 @@
         <v>67</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6135,22 +6213,22 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG149" s="6" t="s">
         <v>75</v>
@@ -6158,20 +6236,20 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>62</v>
@@ -6182,10 +6260,10 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
@@ -6198,21 +6276,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6220,10 +6298,10 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="24" customHeight="1">
@@ -6231,10 +6309,10 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
@@ -6247,10 +6325,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6258,10 +6336,10 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
@@ -6274,10 +6352,10 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
@@ -6285,21 +6363,21 @@
         <v>67</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AA176" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AC176" s="6" t="s">
         <v>75</v>
@@ -6307,10 +6385,10 @@
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
@@ -6318,10 +6396,10 @@
         <v>67</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6331,13 +6409,13 @@
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="B181" s="11" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AA181" s="6" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AC181" s="6" t="s">
         <v>75</v>
@@ -6411,20 +6489,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6435,10 +6513,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6446,7 +6524,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6457,10 +6535,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6473,10 +6551,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6484,10 +6562,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6500,21 +6578,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6524,10 +6602,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6535,21 +6613,21 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>75</v>
@@ -6557,10 +6635,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6568,21 +6646,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -6590,10 +6668,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6601,21 +6679,21 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>75</v>
@@ -6623,10 +6701,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6634,21 +6712,21 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>75</v>
@@ -6656,10 +6734,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6667,21 +6745,21 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>75</v>
@@ -6689,10 +6767,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6700,10 +6778,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6713,13 +6791,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -6727,13 +6805,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -6741,10 +6819,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6752,10 +6830,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6765,19 +6843,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>75</v>
@@ -6785,19 +6863,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>75</v>
@@ -6805,19 +6883,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>75</v>
@@ -6825,10 +6903,10 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6836,10 +6914,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6852,23 +6930,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -6876,24 +6954,24 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -6901,10 +6979,10 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -6912,10 +6990,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -6925,22 +7003,22 @@
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="AA71" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>75</v>
@@ -6948,22 +7026,22 @@
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="B72" s="11" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="AA72" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="AD72" s="6" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="AE72" s="6" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="AF72" s="6" t="s">
         <v>75</v>
@@ -7034,20 +7112,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7058,10 +7136,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7069,7 +7147,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7080,10 +7158,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7096,21 +7174,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7118,21 +7196,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7140,10 +7218,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7151,10 +7229,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7167,10 +7245,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7178,21 +7256,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -7200,10 +7278,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7211,10 +7289,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7224,19 +7302,19 @@
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>90</v>
@@ -7247,19 +7325,19 @@
     </row>
     <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="AE34" s="6" t="s">
         <v>90</v>
@@ -7270,19 +7348,19 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>90</v>
@@ -7293,10 +7371,10 @@
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
@@ -7304,10 +7382,10 @@
         <v>67</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
@@ -7318,40 +7396,40 @@
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>75</v>
@@ -7359,10 +7437,10 @@
     </row>
     <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
@@ -7370,24 +7448,24 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="AD44" s="6" t="s">
         <v>75</v>
@@ -7395,10 +7473,10 @@
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
@@ -7406,10 +7484,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7417,21 +7495,21 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -7441,10 +7519,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -7452,21 +7530,21 @@
         <v>67</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>75</v>
@@ -7474,10 +7552,10 @@
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
@@ -7485,10 +7563,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7501,10 +7579,10 @@
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -7512,24 +7590,24 @@
         <v>67</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="11" t="s">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="AA65" s="6" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AD65" s="6" t="s">
         <v>75</v>
@@ -7537,10 +7615,10 @@
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
@@ -7548,10 +7626,10 @@
         <v>46</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7564,10 +7642,10 @@
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -7575,19 +7653,19 @@
         <v>67</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC74" s="6" t="s">
         <v>75</v>
@@ -7595,10 +7673,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -7606,10 +7684,10 @@
         <v>46</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7622,10 +7700,10 @@
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
@@ -7633,19 +7711,19 @@
         <v>67</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC83" s="6" t="s">
         <v>75</v>
@@ -7653,10 +7731,10 @@
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
@@ -7664,10 +7742,10 @@
         <v>46</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7680,10 +7758,10 @@
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
@@ -7691,10 +7769,10 @@
         <v>67</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7704,22 +7782,22 @@
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="B93" s="11" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="AA93" s="6" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>379</v>
+        <v>541</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="AE93" s="6" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="AF93" s="6" t="s">
         <v>75</v>
@@ -7727,22 +7805,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>379</v>
+        <v>541</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>75</v>
@@ -7750,10 +7828,10 @@
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -7761,10 +7839,10 @@
         <v>46</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7777,10 +7855,10 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -7788,10 +7866,10 @@
         <v>46</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7870,20 +7948,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7894,10 +7972,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7905,7 +7983,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7916,10 +7994,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7932,10 +8010,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -7943,10 +8021,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7959,21 +8037,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -7983,10 +8061,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -7994,10 +8072,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8007,19 +8085,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>75</v>
@@ -8027,10 +8105,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -8038,10 +8116,10 @@
         <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8051,10 +8129,10 @@
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>75</v>
@@ -8092,20 +8170,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8116,10 +8194,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8127,7 +8205,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8138,10 +8216,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8154,10 +8232,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8165,10 +8243,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8181,21 +8259,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8203,10 +8281,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8214,10 +8292,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8228,13 +8306,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -8242,10 +8320,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8253,10 +8331,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8269,34 +8347,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8306,10 +8384,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8317,10 +8395,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8330,15 +8408,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8346,10 +8424,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8362,23 +8440,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8386,10 +8464,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8402,23 +8480,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8426,10 +8504,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8442,10 +8520,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8453,10 +8531,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8469,23 +8547,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8493,10 +8571,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8509,10 +8587,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8520,27 +8598,27 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>75</v>
@@ -8548,10 +8626,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8559,27 +8637,27 @@
         <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>637</v>
+        <v>662</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>75</v>
@@ -8587,23 +8665,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>640</v>
+        <v>666</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8611,10 +8689,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8622,23 +8700,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>647</v>
+        <v>673</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8646,10 +8724,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8657,34 +8735,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>651</v>
+        <v>677</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>652</v>
+        <v>678</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>653</v>
+        <v>679</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>654</v>
+        <v>680</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8692,10 +8770,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8703,10 +8781,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8719,10 +8797,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8730,10 +8808,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8746,10 +8824,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8757,10 +8835,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8773,34 +8851,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8808,10 +8886,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8819,10 +8897,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -8832,15 +8910,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>672</v>
+        <v>698</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -8848,10 +8926,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>674</v>
+        <v>700</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -8864,10 +8942,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -8875,10 +8953,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -8891,34 +8969,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>677</v>
+        <v>703</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>678</v>
+        <v>704</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -8926,10 +9004,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -8937,10 +9015,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -8953,10 +9031,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -8964,10 +9042,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -8980,10 +9058,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -8991,10 +9069,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/mri-agcm3-2/cmip6_mri_mri-agcm3-2_land.xlsx
+++ b/cmip6/models/mri-agcm3-2/cmip6_mri_mri-agcm3-2_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="843">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -237,19 +237,19 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>carbon</t>
-  </si>
-  <si>
-    <t>nitrogen</t>
-  </si>
-  <si>
-    <t>phospherous</t>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Phospherous</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -282,27 +282,21 @@
     <t>Other: ice</t>
   </si>
   <si>
-    <t>bare soil</t>
-  </si>
-  <si>
-    <t>urban</t>
-  </si>
-  <si>
-    <t>lake</t>
-  </si>
-  <si>
-    <t>land ice</t>
-  </si>
-  <si>
-    <t>lake ice</t>
-  </si>
-  <si>
-    <t>vegetated</t>
-  </si>
-  <si>
     <t>Bare soil</t>
   </si>
   <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Land ice</t>
+  </si>
+  <si>
+    <t>Lake ice</t>
+  </si>
+  <si>
     <t>Vegetated</t>
   </si>
   <si>
@@ -342,9 +336,6 @@
     <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -354,9 +345,6 @@
     <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -366,9 +354,6 @@
     <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
-    <t>Carbon</t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -777,13 +762,13 @@
     <t>cmip6.land.soil.snow_free_albedo.functions</t>
   </si>
   <si>
-    <t>vegetation type</t>
-  </si>
-  <si>
-    <t>soil humidity</t>
-  </si>
-  <si>
-    <t>vegetation state</t>
+    <t>Vegetation type</t>
+  </si>
+  <si>
+    <t>Soil humidity</t>
+  </si>
+  <si>
+    <t>Vegetation state</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.3 </t>
@@ -798,10 +783,10 @@
     <t>cmip6.land.soil.snow_free_albedo.direct_diffuse</t>
   </si>
   <si>
-    <t>distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>no distinction between direct and diffuse albedo</t>
+    <t>Distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>No distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -888,10 +873,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>perfect connectivity: Common soil for multiple tiles</t>
-  </si>
-  <si>
-    <t>Darcian flow: Darcian flow among hillslope tiles</t>
+    <t>Perfect connectivity</t>
+  </si>
+  <si>
+    <t>Darcian flow</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
@@ -1002,7 +987,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>topmodel-based</t>
+    <t>Topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1083,10 +1068,7 @@
     <t>Soil moisture freeze-thaw</t>
   </si>
   <si>
-    <t>soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>coupling with snow temperature</t>
+    <t>Coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1149,10 +1131,7 @@
     <t>cmip6.land.snow.density</t>
   </si>
   <si>
-    <t>prognostic</t>
-  </si>
-  <si>
-    <t>constant</t>
+    <t>Constant</t>
   </si>
   <si>
     <t>4.1.1.6 *</t>
@@ -1167,7 +1146,7 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
-    <t>diagnostic</t>
+    <t>Diagnostic</t>
   </si>
   <si>
     <t>4.1.1.7 *</t>
@@ -1194,9 +1173,6 @@
     <t>cmip6.land.snow.temperature</t>
   </si>
   <si>
-    <t>Diagnostic</t>
-  </si>
-  <si>
     <t>4.1.1.9 *</t>
   </si>
   <si>
@@ -1224,12 +1200,6 @@
     <t>Ground snow fraction</t>
   </si>
   <si>
-    <t>ground snow fraction</t>
-  </si>
-  <si>
-    <t>vegetation snow fraction</t>
-  </si>
-  <si>
     <t>Vegetation snow fraction</t>
   </si>
   <si>
@@ -1245,24 +1215,18 @@
     <t>Other: snow refreezing</t>
   </si>
   <si>
-    <t>snow interception</t>
-  </si>
-  <si>
-    <t>snow melting</t>
-  </si>
-  <si>
-    <t>snow freezing</t>
-  </si>
-  <si>
-    <t>blowing snow</t>
-  </si>
-  <si>
     <t>Snow interception</t>
   </si>
   <si>
     <t>Snow melting</t>
   </si>
   <si>
+    <t>Snow freezing</t>
+  </si>
+  <si>
+    <t>Blowing snow</t>
+  </si>
+  <si>
     <t>4.1.1.12 *</t>
   </si>
   <si>
@@ -1293,7 +1257,7 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
-    <t>prescribed</t>
+    <t>Prescribed</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.2 </t>
@@ -1308,21 +1272,15 @@
     <t>Snow age</t>
   </si>
   <si>
-    <t>snow age</t>
-  </si>
-  <si>
-    <t>snow density</t>
-  </si>
-  <si>
-    <t>snow grain type</t>
-  </si>
-  <si>
-    <t>aerosol deposition</t>
-  </si>
-  <si>
     <t>Snow density</t>
   </si>
   <si>
+    <t>Snow grain type</t>
+  </si>
+  <si>
+    <t>Aerosol deposition</t>
+  </si>
+  <si>
     <t>5.1.1</t>
   </si>
   <si>
@@ -1395,10 +1353,7 @@
     <t>Vegetation types</t>
   </si>
   <si>
-    <t>vegetation types</t>
-  </si>
-  <si>
-    <t>biome types</t>
+    <t>Biome types</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.7 </t>
@@ -1416,21 +1371,15 @@
     <t>C3 grass</t>
   </si>
   <si>
-    <t>broadleaf tree</t>
-  </si>
-  <si>
-    <t>needleleaf tree</t>
+    <t>Broadleaf tree</t>
+  </si>
+  <si>
+    <t>Needleleaf tree</t>
   </si>
   <si>
     <t>C4 grass</t>
   </si>
   <si>
-    <t>Broadleaf tree</t>
-  </si>
-  <si>
-    <t>Needleleaf tree</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.8 </t>
   </si>
   <si>
@@ -1443,40 +1392,40 @@
     <t>cmip6.land.vegetation.biome_types</t>
   </si>
   <si>
-    <t>evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>mixed forest</t>
-  </si>
-  <si>
-    <t>woodland</t>
-  </si>
-  <si>
-    <t>wooded grassland</t>
-  </si>
-  <si>
-    <t>closed shrubland</t>
-  </si>
-  <si>
-    <t>opne shrubland</t>
-  </si>
-  <si>
-    <t>grassland</t>
-  </si>
-  <si>
-    <t>cropland</t>
-  </si>
-  <si>
-    <t>wetlands</t>
+    <t>Evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>Evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>Deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>Deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>Mixed forest</t>
+  </si>
+  <si>
+    <t>Woodland</t>
+  </si>
+  <si>
+    <t>Wooded grassland</t>
+  </si>
+  <si>
+    <t>Closed shrubland</t>
+  </si>
+  <si>
+    <t>Opne shrubland</t>
+  </si>
+  <si>
+    <t>Grassland</t>
+  </si>
+  <si>
+    <t>Cropland</t>
+  </si>
+  <si>
+    <t>Wetlands</t>
   </si>
   <si>
     <t>5.1.1.9 *</t>
@@ -1494,13 +1443,10 @@
     <t>Fixed (not varying)</t>
   </si>
   <si>
-    <t>fixed (not varying)</t>
-  </si>
-  <si>
-    <t>prescribed (varying from files)</t>
-  </si>
-  <si>
-    <t>dynamical (varying from simulation)</t>
+    <t>Prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>Dynamical (varying from simulation)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.10 </t>
@@ -1542,9 +1488,6 @@
     <t>Diagnostic (vegetation map)</t>
   </si>
   <si>
-    <t>diagnostic (vegetation map)</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.13 </t>
   </si>
   <si>
@@ -1569,9 +1512,6 @@
     <t>cmip6.land.vegetation.leaf_area_index</t>
   </si>
   <si>
-    <t>Prescribed</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.15 </t>
   </si>
   <si>
@@ -1647,13 +1587,7 @@
     <t>Light</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>water availability</t>
+    <t>Water availability</t>
   </si>
   <si>
     <t>CO2</t>
@@ -1662,9 +1596,6 @@
     <t>O3</t>
   </si>
   <si>
-    <t>Water availability</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1749,13 +1680,10 @@
     <t>Combined</t>
   </si>
   <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>combined</t>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1773,9 +1701,6 @@
     <t>Transpiration</t>
   </si>
   <si>
-    <t>transpiration</t>
-  </si>
-  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -1833,13 +1758,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>grand slam protocol</t>
-  </si>
-  <si>
-    <t>residence time</t>
-  </si>
-  <si>
-    <t>decay time</t>
+    <t>Grand slam protocol</t>
+  </si>
+  <si>
+    <t>Residence time</t>
+  </si>
+  <si>
+    <t>Decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1983,16 +1908,16 @@
     <t>Other: leaves + stems and roots (leafy + woody)</t>
   </si>
   <si>
-    <t>leaves + stems + roots</t>
-  </si>
-  <si>
-    <t>leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>whole plant (no distinction)</t>
+    <t>Leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>Leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>Leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>Whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -2010,16 +1935,13 @@
     <t>Function of plant allometry</t>
   </si>
   <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>function of vegetation type</t>
-  </si>
-  <si>
-    <t>function of plant allometry</t>
-  </si>
-  <si>
-    <t>explicitly calculated</t>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Function of vegetation type</t>
+  </si>
+  <si>
+    <t>Explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2334,10 +2256,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>flood plains</t>
-  </si>
-  <si>
-    <t>irrigation</t>
+    <t>Flood plains</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2376,10 +2298,10 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>tracers</t>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Tracers</t>
   </si>
   <si>
     <t>9.1.1.12 *</t>
@@ -2394,10 +2316,10 @@
     <t>cmip6.land.river_routing.basin_flow_direction_map</t>
   </si>
   <si>
-    <t>present day</t>
-  </si>
-  <si>
-    <t>adapted for other periods</t>
+    <t>Present day</t>
+  </si>
+  <si>
+    <t>Adapted for other periods</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.13 </t>
@@ -2442,10 +2364,10 @@
     <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
   </si>
   <si>
-    <t>direct (large rivers)</t>
-  </si>
-  <si>
-    <t>diffuse</t>
+    <t>Direct (large rivers)</t>
+  </si>
+  <si>
+    <t>Diffuse</t>
   </si>
   <si>
     <t>9.2.1.2 *</t>
@@ -2586,10 +2508,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>vertical</t>
-  </si>
-  <si>
-    <t>horizontal</t>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3292,20 +3214,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3316,10 +3238,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3327,7 +3249,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3338,10 +3260,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3354,10 +3276,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3365,10 +3287,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3381,21 +3303,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3403,10 +3325,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3414,10 +3336,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3454,20 +3376,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3478,10 +3400,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3489,7 +3411,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3500,10 +3422,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3516,10 +3438,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3527,10 +3449,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3543,21 +3465,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>750</v>
+        <v>724</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>752</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3565,21 +3487,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3587,10 +3509,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3598,10 +3520,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3609,21 +3531,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>761</v>
+        <v>735</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3631,10 +3553,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3642,10 +3564,10 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3656,10 +3578,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>75</v>
@@ -3667,21 +3589,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3689,10 +3611,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3700,10 +3622,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3716,10 +3638,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3727,10 +3649,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3741,13 +3663,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -3755,10 +3677,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>785</v>
+        <v>759</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>786</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3766,19 +3688,19 @@
         <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>75</v>
@@ -3786,10 +3708,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>792</v>
+        <v>766</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3797,10 +3719,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3813,10 +3735,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>795</v>
+        <v>769</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3824,10 +3746,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>796</v>
+        <v>770</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>797</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3840,23 +3762,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>799</v>
+        <v>773</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3864,19 +3786,19 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>803</v>
+        <v>777</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>805</v>
+        <v>779</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>806</v>
+        <v>780</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>75</v>
@@ -3884,10 +3806,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>807</v>
+        <v>781</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>808</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3895,10 +3817,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>809</v>
+        <v>783</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>810</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3909,13 +3831,13 @@
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>75</v>
@@ -3971,20 +3893,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>811</v>
+        <v>785</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>812</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3995,10 +3917,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4006,7 +3928,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4017,10 +3939,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>818</v>
+        <v>792</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>819</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4033,21 +3955,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4055,21 +3977,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>824</v>
+        <v>798</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4077,10 +3999,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>828</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4088,10 +4010,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>830</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4102,13 +4024,13 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>75</v>
@@ -4116,10 +4038,10 @@
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>832</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -4127,10 +4049,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4138,10 +4060,10 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4149,10 +4071,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4165,34 +4087,34 @@
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>839</v>
+        <v>813</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>840</v>
+        <v>814</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>843</v>
+        <v>817</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4200,10 +4122,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -4211,19 +4133,19 @@
         <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -4231,10 +4153,10 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -4242,10 +4164,10 @@
         <v>67</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4256,13 +4178,13 @@
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
       <c r="AD50" s="6" t="s">
         <v>75</v>
@@ -4270,21 +4192,21 @@
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>855</v>
+        <v>829</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>857</v>
+        <v>831</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4292,21 +4214,21 @@
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>861</v>
+        <v>835</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>862</v>
+        <v>836</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4314,20 +4236,20 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>863</v>
+        <v>837</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>864</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>865</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>866</v>
+        <v>840</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>62</v>
@@ -4338,10 +4260,10 @@
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>867</v>
+        <v>841</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>868</v>
+        <v>842</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4733,7 +4655,7 @@
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>85</v>
@@ -4759,7 +4681,7 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>85</v>
@@ -4785,10 +4707,10 @@
     </row>
     <row r="39" spans="1:33" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:33" ht="24" customHeight="1">
@@ -4796,10 +4718,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
@@ -4807,10 +4729,10 @@
     </row>
     <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
@@ -4818,10 +4740,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
@@ -4834,23 +4756,23 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -4858,10 +4780,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4874,10 +4796,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -4885,10 +4807,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4901,10 +4823,10 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -4912,10 +4834,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -4928,34 +4850,34 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -4963,21 +4885,21 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -4985,10 +4907,10 @@
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
@@ -4996,10 +4918,10 @@
         <v>46</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -5007,23 +4929,23 @@
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -5031,10 +4953,10 @@
         <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -5042,10 +4964,10 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -5053,10 +4975,10 @@
         <v>46</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -5064,10 +4986,10 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -5075,10 +4997,10 @@
         <v>46</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5091,20 +5013,20 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="B102" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>62</v>
@@ -5115,10 +5037,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -5170,20 +5092,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5194,10 +5116,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5205,7 +5127,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5216,10 +5138,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5232,20 +5154,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
@@ -5256,10 +5178,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5272,21 +5194,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5294,20 +5216,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5318,10 +5240,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5334,21 +5256,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5383,20 +5305,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5407,10 +5329,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5418,7 +5340,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5429,10 +5351,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5445,10 +5367,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5456,10 +5378,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5467,21 +5389,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5489,10 +5411,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5500,10 +5422,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5516,20 +5438,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5540,10 +5462,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5556,10 +5478,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5567,23 +5489,23 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5591,23 +5513,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5615,10 +5537,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5626,10 +5548,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5637,23 +5559,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5661,34 +5583,34 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5696,10 +5618,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5707,10 +5629,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5718,34 +5640,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5753,10 +5675,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5764,10 +5686,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5778,13 +5700,13 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>75</v>
@@ -5792,10 +5714,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -5803,19 +5725,19 @@
         <v>67</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AC78" s="6" t="s">
         <v>75</v>
@@ -5823,21 +5745,21 @@
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5845,20 +5767,20 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>62</v>
@@ -5869,10 +5791,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5885,21 +5807,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -5907,10 +5829,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5918,10 +5840,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -5934,10 +5856,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -5945,10 +5867,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -5961,21 +5883,21 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -5985,10 +5907,10 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -5996,10 +5918,10 @@
         <v>67</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -6010,10 +5932,10 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AC114" s="6" t="s">
         <v>75</v>
@@ -6021,10 +5943,10 @@
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
@@ -6032,27 +5954,27 @@
         <v>67</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="B118" s="11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AA118" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AE118" s="6" t="s">
         <v>75</v>
@@ -6060,34 +5982,34 @@
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
@@ -6097,10 +6019,10 @@
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -6108,23 +6030,23 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -6132,10 +6054,10 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -6148,20 +6070,20 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>62</v>
@@ -6172,10 +6094,10 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -6188,10 +6110,10 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
@@ -6199,10 +6121,10 @@
         <v>67</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6213,22 +6135,22 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB149" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC149" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD149" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE149" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF149" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="AB149" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC149" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD149" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE149" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF149" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="AG149" s="6" t="s">
         <v>75</v>
@@ -6236,20 +6158,20 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>62</v>
@@ -6260,10 +6182,10 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
@@ -6276,21 +6198,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6298,10 +6220,10 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="24" customHeight="1">
@@ -6309,10 +6231,10 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
@@ -6325,10 +6247,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6336,10 +6258,10 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
@@ -6352,10 +6274,10 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
@@ -6363,21 +6285,21 @@
         <v>67</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AA176" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC176" s="6" t="s">
         <v>75</v>
@@ -6385,10 +6307,10 @@
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
@@ -6396,10 +6318,10 @@
         <v>67</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6409,13 +6331,13 @@
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="B181" s="11" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AA181" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AC181" s="6" t="s">
         <v>75</v>
@@ -6489,20 +6411,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6513,10 +6435,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6524,7 +6446,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6535,10 +6457,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6551,10 +6473,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6562,10 +6484,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6578,21 +6500,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6602,10 +6524,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6613,21 +6535,21 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>75</v>
@@ -6635,10 +6557,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6646,21 +6568,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -6668,10 +6590,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6679,21 +6601,21 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>75</v>
@@ -6701,10 +6623,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6712,21 +6634,21 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>75</v>
@@ -6734,10 +6656,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6745,21 +6667,21 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>75</v>
@@ -6767,10 +6689,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6778,10 +6700,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6791,13 +6713,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -6805,13 +6727,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -6819,10 +6741,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6830,10 +6752,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6843,19 +6765,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>75</v>
@@ -6863,19 +6785,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>75</v>
@@ -6883,19 +6805,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>75</v>
@@ -6903,10 +6825,10 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6914,10 +6836,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6930,23 +6852,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -6954,24 +6876,24 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -6979,10 +6901,10 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -6990,10 +6912,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -7003,22 +6925,22 @@
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="AA71" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>75</v>
@@ -7026,22 +6948,22 @@
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="B72" s="11" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AA72" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="AD72" s="6" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="AE72" s="6" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="AF72" s="6" t="s">
         <v>75</v>
@@ -7112,20 +7034,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7136,10 +7058,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7147,7 +7069,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7158,10 +7080,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7174,21 +7096,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7196,21 +7118,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7218,10 +7140,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7229,10 +7151,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7245,10 +7167,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7256,21 +7178,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -7278,10 +7200,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7289,10 +7211,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7302,19 +7224,19 @@
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>90</v>
@@ -7325,19 +7247,19 @@
     </row>
     <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="AE34" s="6" t="s">
         <v>90</v>
@@ -7348,19 +7270,19 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>90</v>
@@ -7371,10 +7293,10 @@
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
@@ -7382,10 +7304,10 @@
         <v>67</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
@@ -7396,40 +7318,40 @@
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>75</v>
@@ -7437,10 +7359,10 @@
     </row>
     <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
@@ -7448,24 +7370,24 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="AD44" s="6" t="s">
         <v>75</v>
@@ -7473,10 +7395,10 @@
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
@@ -7484,10 +7406,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7495,21 +7417,21 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -7519,10 +7441,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -7530,21 +7452,21 @@
         <v>67</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>75</v>
@@ -7552,10 +7474,10 @@
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
@@ -7563,10 +7485,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7579,10 +7501,10 @@
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -7590,24 +7512,24 @@
         <v>67</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="11" t="s">
-        <v>514</v>
+        <v>410</v>
       </c>
       <c r="AA65" s="6" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AD65" s="6" t="s">
         <v>75</v>
@@ -7615,10 +7537,10 @@
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
@@ -7626,10 +7548,10 @@
         <v>46</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7642,10 +7564,10 @@
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -7653,19 +7575,19 @@
         <v>67</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC74" s="6" t="s">
         <v>75</v>
@@ -7673,10 +7595,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -7684,10 +7606,10 @@
         <v>46</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7700,10 +7622,10 @@
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
@@ -7711,19 +7633,19 @@
         <v>67</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC83" s="6" t="s">
         <v>75</v>
@@ -7731,10 +7653,10 @@
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
@@ -7742,10 +7664,10 @@
         <v>46</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7758,10 +7680,10 @@
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
@@ -7769,10 +7691,10 @@
         <v>67</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7782,22 +7704,22 @@
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="B93" s="11" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="AA93" s="6" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>541</v>
+        <v>379</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="AE93" s="6" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="AF93" s="6" t="s">
         <v>75</v>
@@ -7805,22 +7727,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>541</v>
+        <v>379</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>75</v>
@@ -7828,10 +7750,10 @@
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -7839,10 +7761,10 @@
         <v>46</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7855,10 +7777,10 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -7866,10 +7788,10 @@
         <v>46</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7948,20 +7870,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7972,10 +7894,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7983,7 +7905,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7994,10 +7916,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8010,10 +7932,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8021,10 +7943,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8037,21 +7959,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8061,10 +7983,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8072,10 +7994,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8085,19 +8007,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>75</v>
@@ -8105,10 +8027,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -8116,10 +8038,10 @@
         <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8129,10 +8051,10 @@
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>75</v>
@@ -8170,20 +8092,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8194,10 +8116,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8205,7 +8127,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8216,10 +8138,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8232,10 +8154,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8243,10 +8165,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8259,21 +8181,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8281,10 +8203,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8292,10 +8214,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8306,13 +8228,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -8320,10 +8242,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8331,10 +8253,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8347,34 +8269,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8384,10 +8306,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8395,10 +8317,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8408,15 +8330,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8424,10 +8346,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8440,23 +8362,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8464,10 +8386,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8480,23 +8402,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8504,10 +8426,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8520,10 +8442,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8531,10 +8453,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8547,23 +8469,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8571,10 +8493,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8587,10 +8509,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8598,27 +8520,27 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>75</v>
@@ -8626,10 +8548,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8637,27 +8559,27 @@
         <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>75</v>
@@ -8665,23 +8587,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8689,10 +8611,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8700,23 +8622,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8724,10 +8646,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8735,34 +8657,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8770,10 +8692,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8781,10 +8703,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8797,10 +8719,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8808,10 +8730,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8824,10 +8746,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8835,10 +8757,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8851,34 +8773,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8886,10 +8808,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8897,10 +8819,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -8910,15 +8832,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -8926,10 +8848,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -8942,10 +8864,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -8953,10 +8875,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -8969,34 +8891,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9004,10 +8926,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9015,10 +8937,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9031,10 +8953,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9042,10 +8964,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9058,10 +8980,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9069,10 +8991,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/mri-agcm3-2/cmip6_mri_mri-agcm3-2_land.xlsx
+++ b/cmip6/models/mri-agcm3-2/cmip6_mri_mri-agcm3-2_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="865">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -237,123 +237,138 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>phospherous</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Atmospheric Coupling Treatment</t>
+  </si>
+  <si>
+    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Land Cover</t>
+  </si>
+  <si>
+    <t>Types of land cover defined in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover</t>
+  </si>
+  <si>
+    <t>Other: ice</t>
+  </si>
+  <si>
+    <t>bare soil</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>land ice</t>
+  </si>
+  <si>
+    <t>lake ice</t>
+  </si>
+  <si>
+    <t>vegetated</t>
+  </si>
+  <si>
+    <t>Bare soil</t>
+  </si>
+  <si>
+    <t>Vegetated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.8 </t>
+  </si>
+  <si>
+    <t>Land Cover Change</t>
+  </si>
+  <si>
+    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover_change</t>
+  </si>
+  <si>
+    <t>1.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Tiling</t>
+  </si>
+  <si>
+    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.tiling</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation Properties</t>
+  </si>
+  <si>
+    <t>Convservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Carbon</t>
   </si>
   <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Phospherous</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Atmospheric Coupling Treatment</t>
-  </si>
-  <si>
-    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Land Cover</t>
-  </si>
-  <si>
-    <t>Types of land cover defined in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover</t>
-  </si>
-  <si>
-    <t>Other: ice</t>
-  </si>
-  <si>
-    <t>Bare soil</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Land ice</t>
-  </si>
-  <si>
-    <t>Lake ice</t>
-  </si>
-  <si>
-    <t>Vegetated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.8 </t>
-  </si>
-  <si>
-    <t>Land Cover Change</t>
-  </si>
-  <si>
-    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover_change</t>
-  </si>
-  <si>
-    <t>1.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Tiling</t>
-  </si>
-  <si>
-    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.tiling</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation Properties</t>
-  </si>
-  <si>
-    <t>Convservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -762,13 +777,13 @@
     <t>cmip6.land.soil.snow_free_albedo.functions</t>
   </si>
   <si>
-    <t>Vegetation type</t>
-  </si>
-  <si>
-    <t>Soil humidity</t>
-  </si>
-  <si>
-    <t>Vegetation state</t>
+    <t>vegetation type</t>
+  </si>
+  <si>
+    <t>soil humidity</t>
+  </si>
+  <si>
+    <t>vegetation state</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.3 </t>
@@ -783,10 +798,10 @@
     <t>cmip6.land.soil.snow_free_albedo.direct_diffuse</t>
   </si>
   <si>
-    <t>Distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>No distinction between direct and diffuse albedo</t>
+    <t>distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>no distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -873,10 +888,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>Perfect connectivity</t>
-  </si>
-  <si>
-    <t>Darcian flow</t>
+    <t>perfect connectivity: Common soil for multiple tiles</t>
+  </si>
+  <si>
+    <t>Darcian flow: Darcian flow among hillslope tiles</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
@@ -987,7 +1002,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>Topmodel-based</t>
+    <t>topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1065,10 +1080,10 @@
     <t>cmip6.land.soil.heat_treatment.processes</t>
   </si>
   <si>
-    <t>Soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>Coupling with snow temperature</t>
+    <t>soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1131,7 +1146,10 @@
     <t>cmip6.land.snow.density</t>
   </si>
   <si>
-    <t>Constant</t>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>constant</t>
   </si>
   <si>
     <t>4.1.1.6 *</t>
@@ -1146,33 +1164,36 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
+    <t>diagnostic</t>
+  </si>
+  <si>
+    <t>4.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Heat Content</t>
+  </si>
+  <si>
+    <t>Description of the treatment of the heat content of snow</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.heat_content</t>
+  </si>
+  <si>
+    <t>4.1.1.8 *</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Description of the treatment of snow temperature</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.temperature</t>
+  </si>
+  <si>
     <t>Diagnostic</t>
   </si>
   <si>
-    <t>4.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Heat Content</t>
-  </si>
-  <si>
-    <t>Description of the treatment of the heat content of snow</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.heat_content</t>
-  </si>
-  <si>
-    <t>4.1.1.8 *</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Description of the treatment of snow temperature</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.temperature</t>
-  </si>
-  <si>
     <t>4.1.1.9 *</t>
   </si>
   <si>
@@ -1200,6 +1221,12 @@
     <t>Ground snow fraction</t>
   </si>
   <si>
+    <t>ground snow fraction</t>
+  </si>
+  <si>
+    <t>vegetation snow fraction</t>
+  </si>
+  <si>
     <t>Vegetation snow fraction</t>
   </si>
   <si>
@@ -1215,18 +1242,24 @@
     <t>Other: snow refreezing</t>
   </si>
   <si>
+    <t>snow interception</t>
+  </si>
+  <si>
+    <t>snow melting</t>
+  </si>
+  <si>
+    <t>snow freezing</t>
+  </si>
+  <si>
+    <t>blowing snow</t>
+  </si>
+  <si>
     <t>Snow interception</t>
   </si>
   <si>
     <t>Snow melting</t>
   </si>
   <si>
-    <t>Snow freezing</t>
-  </si>
-  <si>
-    <t>Blowing snow</t>
-  </si>
-  <si>
     <t>4.1.1.12 *</t>
   </si>
   <si>
@@ -1257,261 +1290,279 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
+    <t>prescribed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.2 </t>
+  </si>
+  <si>
+    <t>Describe the function types if prognostic snow albedo</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.snow_albedo.functions</t>
+  </si>
+  <si>
+    <t>snow age</t>
+  </si>
+  <si>
+    <t>snow density</t>
+  </si>
+  <si>
+    <t>snow grain type</t>
+  </si>
+  <si>
+    <t>aerosol deposition</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Land surface vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the vegetation in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of land surface vegetation in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.overview</t>
+  </si>
+  <si>
+    <t>5.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Time step of vegetation scheme in seconds</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.time_step</t>
+  </si>
+  <si>
+    <t>5.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Dynamic Vegetation</t>
+  </si>
+  <si>
+    <t>Is there dynamic evolution of vegetation?</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.dynamic_vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.5 </t>
+  </si>
+  <si>
+    <t>Describe the vegetation tiling, if any.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.tiling</t>
+  </si>
+  <si>
+    <t>5.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Vegetation Representation</t>
+  </si>
+  <si>
+    <t>Vegetation classification used</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_representation</t>
+  </si>
+  <si>
+    <t>Vegetation types</t>
+  </si>
+  <si>
+    <t>vegetation types</t>
+  </si>
+  <si>
+    <t>biome types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.7 </t>
+  </si>
+  <si>
+    <t>Vegetation Types</t>
+  </si>
+  <si>
+    <t>List of vegetation types in the classification, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_types</t>
+  </si>
+  <si>
+    <t>C3 grass</t>
+  </si>
+  <si>
+    <t>broadleaf tree</t>
+  </si>
+  <si>
+    <t>needleleaf tree</t>
+  </si>
+  <si>
+    <t>C4 grass</t>
+  </si>
+  <si>
+    <t>Broadleaf tree</t>
+  </si>
+  <si>
+    <t>Needleleaf tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.8 </t>
+  </si>
+  <si>
+    <t>Biome Types</t>
+  </si>
+  <si>
+    <t>List of biome types in the classification, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.biome_types</t>
+  </si>
+  <si>
+    <t>evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>mixed forest</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>wooded grassland</t>
+  </si>
+  <si>
+    <t>closed shrubland</t>
+  </si>
+  <si>
+    <t>opne shrubland</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>cropland</t>
+  </si>
+  <si>
+    <t>wetlands</t>
+  </si>
+  <si>
+    <t>5.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Vegetation Time Variation</t>
+  </si>
+  <si>
+    <t>How the vegetation fractions in each tile are varying with time</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_time_variation</t>
+  </si>
+  <si>
+    <t>Fixed (not varying)</t>
+  </si>
+  <si>
+    <t>fixed (not varying)</t>
+  </si>
+  <si>
+    <t>prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>dynamical (varying from simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.10 </t>
+  </si>
+  <si>
+    <t>Vegetation Map</t>
+  </si>
+  <si>
+    <t>If vegetation fractions are not dynamically updated , describe the vegetation map used (common name and reference, if possible)</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_map</t>
+  </si>
+  <si>
+    <t>5.1.1.11 *</t>
+  </si>
+  <si>
+    <t>Interception</t>
+  </si>
+  <si>
+    <t>Is vegetation interception of rainwater represented?</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.interception</t>
+  </si>
+  <si>
+    <t>5.1.1.12 *</t>
+  </si>
+  <si>
+    <t>Phenology</t>
+  </si>
+  <si>
+    <t>Treatment of vegetation phenology</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.phenology</t>
+  </si>
+  <si>
+    <t>Diagnostic (vegetation map)</t>
+  </si>
+  <si>
+    <t>diagnostic (vegetation map)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.13 </t>
+  </si>
+  <si>
+    <t>Phenology Description</t>
+  </si>
+  <si>
+    <t>General description of the treatment of vegetation phenology</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.phenology_description</t>
+  </si>
+  <si>
+    <t>5.1.1.14 *</t>
+  </si>
+  <si>
+    <t>Leaf Area Index</t>
+  </si>
+  <si>
+    <t>Treatment of vegetation leaf area index</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.leaf_area_index</t>
+  </si>
+  <si>
     <t>Prescribed</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe the function types if prognostic snow albedo</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.snow_albedo.functions</t>
-  </si>
-  <si>
-    <t>Snow age</t>
-  </si>
-  <si>
-    <t>Snow density</t>
-  </si>
-  <si>
-    <t>Snow grain type</t>
-  </si>
-  <si>
-    <t>Aerosol deposition</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t>Land surface vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the vegetation in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of land surface vegetation in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.overview</t>
-  </si>
-  <si>
-    <t>5.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Time step of vegetation scheme in seconds</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.time_step</t>
-  </si>
-  <si>
-    <t>5.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Dynamic Vegetation</t>
-  </si>
-  <si>
-    <t>Is there dynamic evolution of vegetation?</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.dynamic_vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.5 </t>
-  </si>
-  <si>
-    <t>Describe the vegetation tiling, if any.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.tiling</t>
-  </si>
-  <si>
-    <t>5.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Vegetation Representation</t>
-  </si>
-  <si>
-    <t>Vegetation classification used</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_representation</t>
-  </si>
-  <si>
-    <t>Vegetation types</t>
-  </si>
-  <si>
-    <t>Biome types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.7 </t>
-  </si>
-  <si>
-    <t>Vegetation Types</t>
-  </si>
-  <si>
-    <t>List of vegetation types in the classification, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_types</t>
-  </si>
-  <si>
-    <t>C3 grass</t>
-  </si>
-  <si>
-    <t>Broadleaf tree</t>
-  </si>
-  <si>
-    <t>Needleleaf tree</t>
-  </si>
-  <si>
-    <t>C4 grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.8 </t>
-  </si>
-  <si>
-    <t>Biome Types</t>
-  </si>
-  <si>
-    <t>List of biome types in the classification, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.biome_types</t>
-  </si>
-  <si>
-    <t>Evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>Mixed forest</t>
-  </si>
-  <si>
-    <t>Woodland</t>
-  </si>
-  <si>
-    <t>Wooded grassland</t>
-  </si>
-  <si>
-    <t>Closed shrubland</t>
-  </si>
-  <si>
-    <t>Opne shrubland</t>
-  </si>
-  <si>
-    <t>Grassland</t>
-  </si>
-  <si>
-    <t>Cropland</t>
-  </si>
-  <si>
-    <t>Wetlands</t>
-  </si>
-  <si>
-    <t>5.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Vegetation Time Variation</t>
-  </si>
-  <si>
-    <t>How the vegetation fractions in each tile are varying with time</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_time_variation</t>
-  </si>
-  <si>
-    <t>Fixed (not varying)</t>
-  </si>
-  <si>
-    <t>Prescribed (varying from files)</t>
-  </si>
-  <si>
-    <t>Dynamical (varying from simulation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.10 </t>
-  </si>
-  <si>
-    <t>Vegetation Map</t>
-  </si>
-  <si>
-    <t>If vegetation fractions are not dynamically updated , describe the vegetation map used (common name and reference, if possible)</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_map</t>
-  </si>
-  <si>
-    <t>5.1.1.11 *</t>
-  </si>
-  <si>
-    <t>Interception</t>
-  </si>
-  <si>
-    <t>Is vegetation interception of rainwater represented?</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.interception</t>
-  </si>
-  <si>
-    <t>5.1.1.12 *</t>
-  </si>
-  <si>
-    <t>Phenology</t>
-  </si>
-  <si>
-    <t>Treatment of vegetation phenology</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.phenology</t>
-  </si>
-  <si>
-    <t>Diagnostic (vegetation map)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.13 </t>
-  </si>
-  <si>
-    <t>Phenology Description</t>
-  </si>
-  <si>
-    <t>General description of the treatment of vegetation phenology</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.phenology_description</t>
-  </si>
-  <si>
-    <t>5.1.1.14 *</t>
-  </si>
-  <si>
-    <t>Leaf Area Index</t>
-  </si>
-  <si>
-    <t>Treatment of vegetation leaf area index</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.leaf_area_index</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.15 </t>
   </si>
   <si>
@@ -1587,15 +1638,24 @@
     <t>Light</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>water availability</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
     <t>Water availability</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>O3</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1680,10 +1740,13 @@
     <t>Combined</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Beta</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1698,7 +1761,7 @@
     <t>cmip6.land.energy_balance.processes</t>
   </si>
   <si>
-    <t>Transpiration</t>
+    <t>transpiration</t>
   </si>
   <si>
     <t>7.1.1</t>
@@ -1758,13 +1821,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>Grand slam protocol</t>
-  </si>
-  <si>
-    <t>Residence time</t>
-  </si>
-  <si>
-    <t>Decay time</t>
+    <t>grand slam protocol</t>
+  </si>
+  <si>
+    <t>residence time</t>
+  </si>
+  <si>
+    <t>decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1908,16 +1971,16 @@
     <t>Other: leaves + stems and roots (leafy + woody)</t>
   </si>
   <si>
-    <t>Leaves + stems + roots</t>
-  </si>
-  <si>
-    <t>Leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>Leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>Whole plant (no distinction)</t>
+    <t>leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -1935,13 +1998,16 @@
     <t>Function of plant allometry</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Function of vegetation type</t>
-  </si>
-  <si>
-    <t>Explicitly calculated</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>function of vegetation type</t>
+  </si>
+  <si>
+    <t>function of plant allometry</t>
+  </si>
+  <si>
+    <t>explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2256,10 +2322,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>Flood plains</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
+    <t>flood plains</t>
+  </si>
+  <si>
+    <t>irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2298,10 +2364,10 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Tracers</t>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>tracers</t>
   </si>
   <si>
     <t>9.1.1.12 *</t>
@@ -2316,10 +2382,10 @@
     <t>cmip6.land.river_routing.basin_flow_direction_map</t>
   </si>
   <si>
-    <t>Present day</t>
-  </si>
-  <si>
-    <t>Adapted for other periods</t>
+    <t>present day</t>
+  </si>
+  <si>
+    <t>adapted for other periods</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.13 </t>
@@ -2364,10 +2430,10 @@
     <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
   </si>
   <si>
-    <t>Direct (large rivers)</t>
-  </si>
-  <si>
-    <t>Diffuse</t>
+    <t>direct (large rivers)</t>
+  </si>
+  <si>
+    <t>diffuse</t>
   </si>
   <si>
     <t>9.2.1.2 *</t>
@@ -2508,10 +2574,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3214,20 +3280,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3238,10 +3304,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3249,7 +3315,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3260,10 +3326,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3276,10 +3342,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3287,10 +3353,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3303,21 +3369,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3325,10 +3391,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3336,10 +3402,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3376,20 +3442,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3400,10 +3466,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3411,7 +3477,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3422,10 +3488,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3438,10 +3504,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3449,10 +3515,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3465,21 +3531,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3487,21 +3553,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3509,10 +3575,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3520,10 +3586,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3531,21 +3597,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3553,10 +3619,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3564,10 +3630,10 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3578,10 +3644,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>75</v>
@@ -3589,21 +3655,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3611,10 +3677,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3622,10 +3688,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3638,10 +3704,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3649,10 +3715,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3663,13 +3729,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -3677,10 +3743,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3688,19 +3754,19 @@
         <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>75</v>
@@ -3708,10 +3774,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>765</v>
+        <v>787</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3719,10 +3785,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3735,10 +3801,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3746,10 +3812,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3762,23 +3828,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3786,19 +3852,19 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>75</v>
@@ -3806,10 +3872,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3817,10 +3883,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>784</v>
+        <v>806</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3831,13 +3897,13 @@
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>75</v>
@@ -3893,20 +3959,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>786</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>788</v>
+        <v>810</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3917,10 +3983,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>789</v>
+        <v>811</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>790</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3928,7 +3994,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3939,10 +4005,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>793</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3955,21 +4021,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>795</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>796</v>
+        <v>818</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>797</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3977,21 +4043,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>798</v>
+        <v>820</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>800</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -3999,10 +4065,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>802</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4010,10 +4076,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>804</v>
+        <v>826</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4024,13 +4090,13 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>75</v>
@@ -4038,10 +4104,10 @@
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>806</v>
+        <v>828</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -4049,10 +4115,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4060,10 +4126,10 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4071,10 +4137,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>810</v>
+        <v>832</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>811</v>
+        <v>833</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4087,34 +4153,34 @@
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>812</v>
+        <v>834</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>813</v>
+        <v>835</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>814</v>
+        <v>836</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>815</v>
+        <v>837</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>816</v>
+        <v>838</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>817</v>
+        <v>839</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4122,10 +4188,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>819</v>
+        <v>841</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -4133,19 +4199,19 @@
         <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -4153,10 +4219,10 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>822</v>
+        <v>844</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>823</v>
+        <v>845</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -4164,10 +4230,10 @@
         <v>67</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>825</v>
+        <v>847</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4178,13 +4244,13 @@
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>827</v>
+        <v>849</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>828</v>
+        <v>850</v>
       </c>
       <c r="AD50" s="6" t="s">
         <v>75</v>
@@ -4192,21 +4258,21 @@
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>829</v>
+        <v>851</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>831</v>
+        <v>853</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4214,21 +4280,21 @@
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>833</v>
+        <v>855</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>834</v>
+        <v>856</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>835</v>
+        <v>857</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>836</v>
+        <v>858</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4236,20 +4302,20 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>837</v>
+        <v>859</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>838</v>
+        <v>860</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>840</v>
+        <v>862</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>62</v>
@@ -4260,10 +4326,10 @@
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>841</v>
+        <v>863</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>842</v>
+        <v>864</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4655,7 +4721,7 @@
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>85</v>
@@ -4681,7 +4747,7 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>85</v>
@@ -4707,10 +4773,10 @@
     </row>
     <row r="39" spans="1:33" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:33" ht="24" customHeight="1">
@@ -4718,10 +4784,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
@@ -4729,10 +4795,10 @@
     </row>
     <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
@@ -4740,10 +4806,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
@@ -4756,23 +4822,23 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -4780,10 +4846,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4796,10 +4862,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -4807,10 +4873,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4823,10 +4889,10 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -4834,10 +4900,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -4850,34 +4916,34 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -4885,21 +4951,21 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -4907,10 +4973,10 @@
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
@@ -4918,10 +4984,10 @@
         <v>46</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -4929,23 +4995,23 @@
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -4953,10 +5019,10 @@
         <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -4964,10 +5030,10 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -4975,10 +5041,10 @@
         <v>46</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -4986,10 +5052,10 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -4997,10 +5063,10 @@
         <v>46</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5013,20 +5079,20 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="B102" s="13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>62</v>
@@ -5037,10 +5103,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -5092,20 +5158,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5116,10 +5182,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5127,7 +5193,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5138,10 +5204,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5154,20 +5220,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
@@ -5178,10 +5244,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5194,21 +5260,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5216,20 +5282,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5240,10 +5306,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5256,21 +5322,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5305,20 +5371,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5329,10 +5395,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5340,7 +5406,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5351,10 +5417,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5367,10 +5433,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5378,10 +5444,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5389,21 +5455,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5411,10 +5477,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5422,10 +5488,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5438,20 +5504,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5462,10 +5528,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5478,10 +5544,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5489,23 +5555,23 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5513,23 +5579,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5537,10 +5603,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5548,10 +5614,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5559,23 +5625,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5583,34 +5649,34 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5618,10 +5684,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5629,10 +5695,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5640,34 +5706,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5675,10 +5741,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5686,10 +5752,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5700,13 +5766,13 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>75</v>
@@ -5714,10 +5780,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -5725,19 +5791,19 @@
         <v>67</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AC78" s="6" t="s">
         <v>75</v>
@@ -5745,21 +5811,21 @@
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5767,20 +5833,20 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>62</v>
@@ -5791,10 +5857,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5807,21 +5873,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -5829,10 +5895,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5840,10 +5906,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -5856,10 +5922,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -5867,10 +5933,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -5883,21 +5949,21 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -5907,10 +5973,10 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -5918,10 +5984,10 @@
         <v>67</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -5932,10 +5998,10 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AC114" s="6" t="s">
         <v>75</v>
@@ -5943,10 +6009,10 @@
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
@@ -5954,27 +6020,27 @@
         <v>67</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="B118" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AA118" s="6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AE118" s="6" t="s">
         <v>75</v>
@@ -5982,34 +6048,34 @@
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
@@ -6019,10 +6085,10 @@
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -6030,23 +6096,23 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -6054,10 +6120,10 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -6070,20 +6136,20 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>62</v>
@@ -6094,10 +6160,10 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -6110,10 +6176,10 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
@@ -6121,10 +6187,10 @@
         <v>67</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6135,22 +6201,22 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG149" s="6" t="s">
         <v>75</v>
@@ -6158,20 +6224,20 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>62</v>
@@ -6182,10 +6248,10 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
@@ -6198,21 +6264,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6220,10 +6286,10 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="24" customHeight="1">
@@ -6231,10 +6297,10 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
@@ -6247,10 +6313,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6258,10 +6324,10 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
@@ -6274,10 +6340,10 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
@@ -6285,21 +6351,21 @@
         <v>67</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AA176" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AC176" s="6" t="s">
         <v>75</v>
@@ -6307,10 +6373,10 @@
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
@@ -6318,10 +6384,10 @@
         <v>67</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6330,14 +6396,12 @@
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="B181" s="11" t="s">
-        <v>346</v>
-      </c>
+      <c r="B181" s="11"/>
       <c r="AA181" s="6" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AC181" s="6" t="s">
         <v>75</v>
@@ -6397,7 +6461,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD72"/>
+  <dimension ref="A1:XFD71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6411,20 +6475,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6435,10 +6499,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6446,7 +6510,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6457,10 +6521,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6473,10 +6537,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6484,10 +6548,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6500,21 +6564,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6524,10 +6588,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6535,21 +6599,21 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>75</v>
@@ -6557,10 +6621,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6568,21 +6632,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -6590,10 +6654,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6601,21 +6665,21 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>75</v>
@@ -6623,10 +6687,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6634,21 +6698,21 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA36" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="AA36" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="AB36" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>75</v>
@@ -6656,10 +6720,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6667,21 +6731,21 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>75</v>
@@ -6689,10 +6753,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6700,10 +6764,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6713,13 +6777,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -6727,13 +6791,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -6741,10 +6805,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6752,10 +6816,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6765,19 +6829,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>75</v>
@@ -6785,19 +6849,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>75</v>
@@ -6805,19 +6869,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>75</v>
@@ -6825,10 +6889,10 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6836,10 +6900,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6852,23 +6916,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -6876,24 +6940,24 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -6901,10 +6965,10 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -6912,10 +6976,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -6924,53 +6988,28 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
-      <c r="B71" s="11" t="s">
-        <v>414</v>
-      </c>
+      <c r="B71" s="11"/>
       <c r="AA71" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="24" customHeight="1">
-      <c r="B72" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="AA72" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB72" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC72" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AD72" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AE72" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF72" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="14">
+  <dataValidations count="13">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -7010,9 +7049,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>AA71:AF71</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>AA72:AF72</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7034,20 +7070,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7058,10 +7094,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7069,7 +7105,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7080,10 +7116,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7096,21 +7132,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7118,21 +7154,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7140,10 +7176,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7151,10 +7187,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7167,10 +7203,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7178,21 +7214,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -7200,10 +7236,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7211,10 +7247,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7224,19 +7260,19 @@
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>90</v>
@@ -7247,19 +7283,19 @@
     </row>
     <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="AE34" s="6" t="s">
         <v>90</v>
@@ -7270,19 +7306,19 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>90</v>
@@ -7293,10 +7329,10 @@
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
@@ -7304,10 +7340,10 @@
         <v>67</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
@@ -7318,40 +7354,40 @@
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>75</v>
@@ -7359,10 +7395,10 @@
     </row>
     <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
@@ -7370,24 +7406,24 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="AD44" s="6" t="s">
         <v>75</v>
@@ -7395,10 +7431,10 @@
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
@@ -7406,10 +7442,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7417,21 +7453,21 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -7441,10 +7477,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -7452,21 +7488,21 @@
         <v>67</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>75</v>
@@ -7474,10 +7510,10 @@
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
@@ -7485,10 +7521,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7501,10 +7537,10 @@
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -7512,24 +7548,24 @@
         <v>67</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="11" t="s">
-        <v>410</v>
+        <v>511</v>
       </c>
       <c r="AA65" s="6" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AD65" s="6" t="s">
         <v>75</v>
@@ -7537,10 +7573,10 @@
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
@@ -7548,10 +7584,10 @@
         <v>46</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7564,10 +7600,10 @@
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -7575,19 +7611,19 @@
         <v>67</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC74" s="6" t="s">
         <v>75</v>
@@ -7595,10 +7631,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -7606,10 +7642,10 @@
         <v>46</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7622,10 +7658,10 @@
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
@@ -7633,19 +7669,19 @@
         <v>67</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC83" s="6" t="s">
         <v>75</v>
@@ -7653,10 +7689,10 @@
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
@@ -7664,10 +7700,10 @@
         <v>46</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7680,10 +7716,10 @@
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
@@ -7691,10 +7727,10 @@
         <v>67</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7704,22 +7740,22 @@
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="B93" s="11" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="AA93" s="6" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>379</v>
+        <v>538</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="AE93" s="6" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="AF93" s="6" t="s">
         <v>75</v>
@@ -7727,22 +7763,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>379</v>
+        <v>538</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>75</v>
@@ -7750,10 +7786,10 @@
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -7761,10 +7797,10 @@
         <v>46</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7777,10 +7813,10 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -7788,10 +7824,10 @@
         <v>46</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7870,20 +7906,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7894,10 +7930,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7905,7 +7941,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7916,10 +7952,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7932,10 +7968,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -7943,10 +7979,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7959,21 +7995,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -7983,10 +8019,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -7994,10 +8030,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8007,19 +8043,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>75</v>
@@ -8027,10 +8063,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -8038,10 +8074,10 @@
         <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8050,11 +8086,9 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>557</v>
-      </c>
+      <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>75</v>
@@ -8092,20 +8126,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8116,10 +8150,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8127,7 +8161,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8138,10 +8172,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8154,10 +8188,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8165,10 +8199,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8181,21 +8215,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8203,10 +8237,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8214,10 +8248,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8228,13 +8262,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -8242,10 +8276,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8253,10 +8287,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8269,34 +8303,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8306,10 +8340,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8317,10 +8351,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8330,15 +8364,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8346,10 +8380,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8362,23 +8396,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8386,10 +8420,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8402,23 +8436,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8426,10 +8460,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8442,10 +8476,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8453,10 +8487,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8469,23 +8503,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8493,10 +8527,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8509,10 +8543,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8520,27 +8554,27 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>75</v>
@@ -8548,10 +8582,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>632</v>
+        <v>653</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8559,27 +8593,27 @@
         <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>75</v>
@@ -8587,23 +8621,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8611,10 +8645,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8622,23 +8656,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8646,10 +8680,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8657,34 +8691,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8692,10 +8726,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8703,10 +8737,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8719,10 +8753,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8730,10 +8764,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8746,10 +8780,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8757,10 +8791,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8773,34 +8807,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8808,10 +8842,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8819,10 +8853,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -8832,15 +8866,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -8848,10 +8882,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -8864,10 +8898,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -8875,10 +8909,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -8891,34 +8925,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -8926,10 +8960,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -8937,10 +8971,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -8953,10 +8987,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -8964,10 +8998,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -8980,10 +9014,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -8991,10 +9025,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
